--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
@@ -517,44 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -564,27 +556,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
@@ -592,16 +584,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -611,32 +600,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -645,10 +634,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -658,13 +644,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -672,29 +658,26 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -705,32 +688,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -739,9 +722,6 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -752,43 +732,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -799,44 +776,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
         <v>3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -846,44 +820,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
       <c r="N9" t="n">
         <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -893,32 +864,32 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>3</v>
       </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -927,10 +898,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -940,13 +908,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -954,13 +922,13 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -974,9 +942,6 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1001,30 +966,27 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1034,13 +996,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1048,15 +1010,15 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1068,9 +1030,6 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1081,44 +1040,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1128,45 +1084,42 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
         <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>6</v>
       </c>
-      <c r="O15" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1175,44 +1128,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
         <v>4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1234,17 +1184,17 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1256,9 +1206,6 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1283,29 +1230,26 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,18 +1269,18 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
@@ -1350,10 +1294,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1372,23 +1313,23 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1398,9 +1339,6 @@
       </c>
       <c r="N20" t="n">
         <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1424,13 +1362,13 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -1444,9 +1382,6 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,40 +1395,37 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1507,29 +1439,29 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1538,9 +1470,6 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1565,29 +1494,26 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,37 +1530,34 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1645,10 +1568,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1659,13 +1582,13 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
@@ -1676,13 +1599,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1698,37 +1618,34 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1739,27 +1656,27 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
-      <c r="G28" t="n">
-        <v>2</v>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
@@ -1773,9 +1690,6 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1792,38 +1706,35 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1847,29 +1758,26 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1880,13 +1788,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1894,30 +1802,27 @@
       <c r="F31" t="n">
         <v>0</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1941,13 +1846,13 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
@@ -1961,9 +1866,6 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1988,13 +1890,13 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
@@ -2008,9 +1910,6 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2035,18 +1934,18 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2055,9 +1954,6 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2082,13 +1978,13 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
@@ -2102,9 +1998,6 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2129,13 +2022,13 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
@@ -2149,9 +2042,6 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,13 +2066,13 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
@@ -2196,9 +2086,6 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2209,27 +2096,27 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
@@ -2243,9 +2130,6 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2256,27 +2140,27 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
@@ -2284,16 +2168,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2306,24 +2187,24 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
@@ -2337,9 +2218,6 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2364,13 +2242,13 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
@@ -2384,9 +2262,6 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2411,13 +2286,13 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
@@ -2431,9 +2306,6 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2458,13 +2330,13 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
@@ -2478,9 +2350,6 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2505,31 +2374,14 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2552,13 +2404,13 @@
       <c r="F45" t="n">
         <v>0</v>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
@@ -2572,9 +2424,6 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2615,16 +2464,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2634,44 +2480,41 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
         <v>3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>4</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2693,31 +2536,28 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2728,29 +2568,29 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
         <v>2</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2762,10 +2602,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2775,13 +2612,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2789,30 +2626,27 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2836,13 +2670,13 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
@@ -2856,9 +2690,6 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2869,10 +2700,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2883,13 +2714,13 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
@@ -2900,13 +2731,10 @@
         <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2916,13 +2744,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2930,15 +2758,15 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2951,9 +2779,6 @@
       </c>
       <c r="N53" t="n">
         <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2966,41 +2791,38 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -3022,32 +2844,29 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3071,13 +2890,13 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
@@ -3091,9 +2910,6 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3118,30 +2934,27 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3151,13 +2964,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3165,13 +2978,13 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" t="n">
         <v>1</v>
       </c>
@@ -3179,15 +2992,12 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
-      </c>
-      <c r="O58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3198,16 +3008,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -3219,25 +3029,22 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
-      </c>
-      <c r="O59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3250,24 +3057,24 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
         <v>1</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" t="n">
         <v>1</v>
       </c>
@@ -3281,9 +3088,6 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3303,18 +3107,18 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
@@ -3328,9 +3132,6 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3355,15 +3156,15 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3375,9 +3176,6 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3400,15 +3198,15 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
@@ -3422,9 +3220,6 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3435,32 +3230,32 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
-      </c>
-      <c r="G64" t="n">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
       <c r="J64" t="n">
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
@@ -3470,9 +3265,6 @@
       </c>
       <c r="N64" t="n">
         <v>1</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3482,29 +3274,29 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="n">
-        <v>2</v>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3516,9 +3308,6 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3538,35 +3327,32 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3590,31 +3376,14 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3632,18 +3401,18 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
@@ -3657,9 +3426,6 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,44 +3436,41 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>2</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4</v>
+      </c>
+      <c r="M69" t="n">
         <v>3</v>
       </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
       <c r="N69" t="n">
-        <v>3</v>
-      </c>
-      <c r="O69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3717,29 +3480,29 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>5</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3751,10 +3514,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3764,27 +3524,27 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
-      </c>
-      <c r="G71" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
@@ -3792,16 +3552,13 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
-      </c>
-      <c r="O71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -3825,13 +3582,13 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
@@ -3845,9 +3602,6 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3872,15 +3626,15 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -3892,10 +3646,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3917,15 +3668,15 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
@@ -3933,15 +3684,12 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3952,13 +3700,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3966,30 +3714,27 @@
       <c r="F75" t="n">
         <v>1</v>
       </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3999,13 +3744,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -4013,13 +3758,13 @@
       <c r="F76" t="n">
         <v>0</v>
       </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
@@ -4033,9 +3778,6 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,15 +3802,15 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4080,9 +3822,6 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4107,13 +3846,13 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
@@ -4127,9 +3866,6 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4154,13 +3890,13 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
@@ -4174,9 +3910,6 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4201,13 +3934,13 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
@@ -4221,9 +3954,6 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4248,13 +3978,13 @@
       <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
       <c r="J81" t="n">
         <v>0</v>
       </c>
@@ -4268,9 +3998,6 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4295,13 +4022,13 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
@@ -4315,9 +4042,6 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4342,13 +4066,13 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
       <c r="J83" t="n">
         <v>1</v>
       </c>
@@ -4362,9 +4086,6 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4389,13 +4110,13 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
@@ -4409,10 +4130,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4434,32 +4152,29 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4483,15 +4198,15 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4503,9 +4218,6 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4530,13 +4242,13 @@
       <c r="F87" t="n">
         <v>0</v>
       </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
       <c r="J87" t="n">
         <v>0</v>
       </c>
@@ -4550,9 +4262,6 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4577,18 +4286,18 @@
       <c r="F88" t="n">
         <v>0</v>
       </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4597,9 +4306,6 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4610,43 +4316,40 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>4</v>
-      </c>
-      <c r="G89" t="n">
         <v>3</v>
       </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>3</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4669,15 +4372,15 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
@@ -4691,10 +4394,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4716,15 +4416,15 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
@@ -4738,9 +4438,6 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4751,43 +4448,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>4</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>8</v>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>5</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>7</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3</v>
-      </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N92" t="n">
-        <v>8</v>
-      </c>
-      <c r="O92" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4798,44 +4492,41 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
-      </c>
-      <c r="G93" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>4</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
       <c r="J93" t="n">
         <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
         <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N93" t="n">
-        <v>4</v>
-      </c>
-      <c r="O93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -4845,44 +4536,41 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3</v>
+      </c>
+      <c r="L94" t="n">
         <v>5</v>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2</v>
-      </c>
       <c r="M94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>4</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -4892,44 +4580,41 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>6</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
       <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
         <v>4</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -4939,44 +4624,41 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
         <v>2</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4986,44 +4668,41 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
         <v>4</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -5033,44 +4712,41 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>6</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>6</v>
       </c>
-      <c r="G98" t="n">
-        <v>2</v>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
         <v>6</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
       <c r="J98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>2</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -5080,13 +4756,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
@@ -5094,30 +4770,27 @@
       <c r="F99" t="n">
         <v>1</v>
       </c>
-      <c r="G99" t="n">
-        <v>2</v>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>3</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -5127,44 +4800,41 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
         <v>3</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
+        <v>4</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
         <v>3</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5188,18 +4858,18 @@
       <c r="F101" t="n">
         <v>0</v>
       </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -5208,9 +4878,6 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5235,18 +4902,18 @@
       <c r="F102" t="n">
         <v>0</v>
       </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -5255,9 +4922,6 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,18 +4946,18 @@
       <c r="F103" t="n">
         <v>0</v>
       </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
       <c r="J103" t="n">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -5302,9 +4966,6 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
@@ -512,41 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -556,29 +556,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,38 +600,38 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
         <v>7</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -655,21 +655,21 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -688,35 +688,35 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -743,24 +743,24 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -776,38 +776,38 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
         <v>3</v>
@@ -820,38 +820,38 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
         <v>5</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -875,30 +875,30 @@
       <c r="E10" t="n">
         <v>3</v>
       </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -919,10 +919,10 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -963,12 +963,12 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1007,12 +1007,12 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1040,41 +1040,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1084,41 +1084,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
         <v>3</v>
       </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="M15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" t="n">
         <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1128,41 +1128,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1181,14 +1181,14 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1227,18 +1227,18 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1266,15 +1266,15 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1310,20 +1310,20 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1359,10 +1359,10 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1403,15 +1403,15 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1447,15 +1447,15 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1491,27 +1491,27 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1533,17 +1533,17 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
       <c r="H25" t="n">
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1552,13 +1552,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1579,10 +1579,10 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1621,20 +1621,20 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1656,21 +1656,21 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
@@ -1703,38 +1703,38 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1755,18 +1755,18 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1799,30 +1799,30 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1843,10 +1843,10 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -1887,12 +1887,12 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1931,15 +1931,15 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1975,10 +1975,10 @@
       <c r="E35" t="n">
         <v>0</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -2019,10 +2019,10 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
@@ -2063,10 +2063,10 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
@@ -2096,21 +2096,21 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -2140,21 +2140,21 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2184,21 +2184,21 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
@@ -2239,10 +2239,10 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -2283,10 +2283,10 @@
       <c r="E42" t="n">
         <v>0</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
@@ -2327,10 +2327,10 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
@@ -2371,17 +2371,31 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2401,10 +2415,10 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
@@ -2443,11 +2457,9 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
         <v>0</v>
       </c>
@@ -2461,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2480,41 +2492,41 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
         <v>3</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2533,12 +2545,14 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
@@ -2546,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -2558,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2568,23 +2582,23 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2599,10 +2613,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2612,7 +2626,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2623,15 +2637,15 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2640,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2667,10 +2681,10 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
@@ -2711,27 +2725,27 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -2744,7 +2758,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -2755,12 +2769,12 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2772,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -2788,7 +2802,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -2797,20 +2811,20 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2819,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2843,10 +2857,10 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
@@ -2854,10 +2868,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2866,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2887,10 +2901,10 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
@@ -2929,20 +2943,20 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -2954,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2964,7 +2978,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -2975,24 +2989,24 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3008,13 +3022,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -3023,25 +3037,25 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
         <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3054,10 +3068,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -3065,24 +3079,24 @@
       <c r="E60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3104,15 +3118,15 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
@@ -3153,12 +3167,12 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3195,12 +3209,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
@@ -3230,38 +3244,38 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
       <c r="H64" t="n">
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>1</v>
@@ -3274,29 +3288,29 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3324,23 +3338,23 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3349,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3373,17 +3387,31 @@
       <c r="E67" t="n">
         <v>0</v>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3398,15 +3426,15 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
@@ -3436,41 +3464,41 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>4</v>
+      </c>
+      <c r="L69" t="n">
         <v>3</v>
       </c>
-      <c r="E69" t="n">
-        <v>3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4</v>
-      </c>
       <c r="M69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3486,35 +3514,35 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
+        <v>5</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
         <v>3</v>
       </c>
-      <c r="F70" t="n">
-        <v>5</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3524,21 +3552,21 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
@@ -3549,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3579,10 +3607,10 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
@@ -3623,12 +3651,12 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3643,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3665,12 +3693,12 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
@@ -3681,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -3700,29 +3728,29 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3731,10 +3759,10 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3744,7 +3772,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -3755,10 +3783,10 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
@@ -3799,12 +3827,12 @@
       <c r="E77" t="n">
         <v>0</v>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3843,10 +3871,10 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
@@ -3887,10 +3915,10 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
@@ -3931,10 +3959,10 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
@@ -3975,10 +4003,10 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
@@ -4019,10 +4047,10 @@
       <c r="E82" t="n">
         <v>0</v>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
@@ -4063,24 +4091,24 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -4107,10 +4135,10 @@
       <c r="E84" t="n">
         <v>0</v>
       </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
@@ -4127,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4149,20 +4177,20 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -4171,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4195,12 +4223,12 @@
       <c r="E86" t="n">
         <v>0</v>
       </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4239,10 +4267,10 @@
       <c r="E87" t="n">
         <v>0</v>
       </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
@@ -4283,15 +4311,15 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -4316,32 +4344,32 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
       </c>
-      <c r="F89" t="n">
-        <v>3</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
@@ -4369,12 +4397,12 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
@@ -4391,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4410,15 +4438,15 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
@@ -4448,38 +4476,38 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>6</v>
+      </c>
       <c r="H92" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L92" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N92" t="n">
         <v>2</v>
@@ -4492,10 +4520,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>4</v>
@@ -4503,30 +4531,30 @@
       <c r="E93" t="n">
         <v>4</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
         <v>3</v>
       </c>
-      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>3</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M93" t="n">
         <v>6</v>
       </c>
       <c r="N93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -4536,41 +4564,41 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="n">
-        <v>2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>4</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
         <v>3</v>
       </c>
-      <c r="K94" t="n">
-        <v>3</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
       <c r="N94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4580,41 +4608,41 @@
         </is>
       </c>
       <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
         <v>3</v>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>2</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>8</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
         <v>4</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>2</v>
-      </c>
       <c r="N95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -4624,7 +4652,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -4633,20 +4661,20 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -4658,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4671,23 +4699,23 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
-      </c>
-      <c r="F97" t="n">
         <v>3</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>5</v>
+      </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4696,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4712,41 +4740,41 @@
         </is>
       </c>
       <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
         <v>6</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>3</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>6</v>
       </c>
-      <c r="E98" t="n">
-        <v>2</v>
-      </c>
-      <c r="F98" t="n">
-        <v>6</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
       <c r="H98" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4756,23 +4784,23 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4781,16 +4809,16 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
         <v>3</v>
       </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4800,41 +4828,41 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="n">
         <v>3</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>6</v>
+      </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4855,15 +4883,15 @@
       <c r="E101" t="n">
         <v>0</v>
       </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -4899,15 +4927,15 @@
       <c r="E102" t="n">
         <v>0</v>
       </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -4943,15 +4971,15 @@
       <c r="E103" t="n">
         <v>0</v>
       </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1568,16 +1568,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>3</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>2</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L92" t="n">
         <v>2</v>
@@ -4548,7 +4548,7 @@
         <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M93" t="n">
         <v>6</v>
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
         <v>6</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N100" t="n">
         <v>1</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
@@ -512,41 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -556,26 +556,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -600,32 +600,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
         <v>7</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -652,21 +652,21 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -691,29 +691,29 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -740,21 +740,21 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -776,41 +776,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -820,41 +820,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
         <v>5</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -872,33 +872,33 @@
       <c r="D10" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -960,12 +960,12 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1004,12 +1004,12 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1040,41 +1040,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
         <v>5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1084,41 +1084,41 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
         <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1128,41 +1128,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1178,14 +1178,14 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1224,18 +1224,18 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1263,15 +1263,15 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1307,20 +1307,20 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1329,16 +1329,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1356,10 +1356,10 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1400,15 +1400,15 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1436,23 +1436,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1488,24 +1488,24 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1527,20 +1527,20 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
       <c r="G25" t="n">
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1568,18 +1568,18 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1618,20 +1618,20 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1656,18 +1656,18 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1700,41 +1700,41 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1752,18 +1752,18 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1796,33 +1796,33 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1840,12 +1840,12 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1884,10 +1884,10 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
@@ -1928,15 +1928,15 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1972,10 +1972,10 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
@@ -2016,10 +2016,10 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
@@ -2060,10 +2060,10 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
@@ -2096,18 +2096,18 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -2140,18 +2140,18 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2184,18 +2184,18 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
@@ -2280,10 +2280,10 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
@@ -2324,10 +2324,10 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
@@ -2368,10 +2368,10 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -2412,10 +2412,10 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
@@ -2454,12 +2454,14 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
@@ -2470,19 +2472,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2492,26 +2494,26 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2520,13 +2522,13 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2539,14 +2541,12 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
         <v>0</v>
       </c>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
@@ -2585,17 +2585,17 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -2634,15 +2634,15 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
@@ -2722,10 +2722,10 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
@@ -2733,22 +2733,22 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2766,12 +2766,12 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2783,16 +2783,16 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2808,20 +2808,20 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>4</v>
+      </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2830,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -2854,21 +2854,21 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
         <v>2</v>
@@ -2898,10 +2898,10 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
@@ -2940,20 +2940,20 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2986,24 +2986,24 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -3037,22 +3037,22 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
         <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -3076,24 +3076,24 @@
       <c r="D60" t="n">
         <v>1</v>
       </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3115,15 +3115,15 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
@@ -3164,12 +3164,12 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3206,12 +3206,12 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
@@ -3244,35 +3244,35 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -3288,26 +3288,26 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3335,23 +3335,23 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3384,10 +3384,10 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
@@ -3423,15 +3423,15 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
@@ -3464,41 +3464,41 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4</v>
+      </c>
+      <c r="K69" t="n">
         <v>3</v>
       </c>
-      <c r="D69" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="n">
-        <v>2</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4</v>
-      </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3514,35 +3514,35 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>3</v>
       </c>
-      <c r="E70" t="n">
-        <v>5</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3552,18 +3552,18 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
@@ -3574,19 +3574,19 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
         <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -3604,10 +3604,10 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
@@ -3648,12 +3648,12 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3668,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -3690,12 +3690,12 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3728,26 +3728,26 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3780,10 +3780,10 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
@@ -3824,12 +3824,12 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3868,10 +3868,10 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
@@ -3912,10 +3912,10 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
@@ -3956,10 +3956,10 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
@@ -4000,10 +4000,10 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
@@ -4044,10 +4044,10 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
@@ -4088,24 +4088,24 @@
       <c r="D83" t="n">
         <v>0</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -4174,20 +4174,20 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -4196,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -4220,12 +4220,12 @@
       <c r="D86" t="n">
         <v>0</v>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4264,10 +4264,10 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
@@ -4308,15 +4308,15 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -4347,26 +4347,26 @@
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>3</v>
       </c>
-      <c r="E89" t="n">
-        <v>3</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4394,12 +4394,12 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -4435,15 +4435,15 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
       </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
@@ -4476,41 +4476,41 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>7</v>
+      </c>
       <c r="G92" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>8</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
         <v>4</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="n">
-        <v>7</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2</v>
-      </c>
       <c r="M92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4520,41 +4520,41 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
         <v>4</v>
       </c>
-      <c r="E93" t="n">
+      <c r="K93" t="n">
+        <v>6</v>
+      </c>
+      <c r="L93" t="n">
         <v>4</v>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="n">
-        <v>3</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3</v>
-      </c>
-      <c r="K93" t="n">
-        <v>4</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6</v>
-      </c>
       <c r="M93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -4564,41 +4564,41 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
         <v>3</v>
       </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" t="n">
+      <c r="I94" t="n">
+        <v>4</v>
+      </c>
+      <c r="J94" t="n">
         <v>3</v>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="n">
-        <v>2</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2</v>
-      </c>
       <c r="K94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -4608,41 +4608,41 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>8</v>
-      </c>
-      <c r="F95" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>4</v>
+      </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4658,20 +4658,20 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -4683,10 +4683,10 @@
         <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4696,41 +4696,41 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" t="n">
-        <v>3</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>4</v>
+      </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>5</v>
       </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
       <c r="M97" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -4740,41 +4740,41 @@
         </is>
       </c>
       <c r="B98" t="n">
+        <v>6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>6</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
         <v>3</v>
       </c>
-      <c r="C98" t="n">
-        <v>6</v>
-      </c>
-      <c r="D98" t="n">
-        <v>3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="n">
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
         <v>5</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="n">
-        <v>5</v>
-      </c>
-      <c r="N98" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4784,20 +4784,20 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4806,19 +4806,19 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -4828,41 +4828,41 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
         <v>3</v>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>5</v>
+      </c>
       <c r="G100" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -4880,15 +4880,15 @@
       <c r="D101" t="n">
         <v>0</v>
       </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4924,15 +4924,15 @@
       <c r="D102" t="n">
         <v>0</v>
       </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -4968,15 +4968,15 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
@@ -512,41 +512,41 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -556,23 +556,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -581,16 +581,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,41 +600,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
         <v>7</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -649,21 +649,21 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -688,29 +688,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -737,21 +737,21 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -776,41 +776,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
         <v>3</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -820,38 +820,38 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -864,41 +864,41 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -913,12 +913,12 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -957,12 +957,12 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -971,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1001,10 +1001,10 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1040,41 +1040,41 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1084,41 +1084,41 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1128,41 +1128,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1175,14 +1175,14 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1221,18 +1221,18 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1260,15 +1260,15 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1304,20 +1304,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1326,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1353,10 +1353,10 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1397,15 +1397,15 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1436,20 +1436,20 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1485,24 +1485,24 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1524,20 +1524,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1615,20 +1615,20 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1656,15 +1656,15 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
@@ -1703,35 +1703,35 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -1749,18 +1749,18 @@
       <c r="C30" t="n">
         <v>0</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1793,33 +1793,33 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -1837,15 +1837,15 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1881,10 +1881,10 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
@@ -1925,10 +1925,10 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
@@ -1969,10 +1969,10 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
@@ -2013,10 +2013,10 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
@@ -2057,10 +2057,10 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
@@ -2096,15 +2096,15 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
@@ -2140,15 +2140,15 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2189,10 +2189,10 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
@@ -2277,10 +2277,10 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
@@ -2321,10 +2321,10 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
@@ -2365,10 +2365,10 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -2409,10 +2409,10 @@
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
@@ -2451,11 +2451,9 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>0</v>
       </c>
@@ -2469,22 +2467,22 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2494,23 +2492,23 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -2519,13 +2517,13 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
         <v>2</v>
@@ -2538,15 +2536,17 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2582,17 +2582,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2607,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -2631,15 +2631,15 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -2675,10 +2675,10 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
@@ -2719,10 +2719,10 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
@@ -2733,22 +2733,22 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2763,12 +2763,12 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2780,16 +2780,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -2805,20 +2805,20 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -2851,21 +2851,21 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -2874,13 +2874,13 @@
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2895,10 +2895,10 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
@@ -2937,20 +2937,20 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2983,24 +2983,24 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -3034,22 +3034,22 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3073,24 +3073,24 @@
       <c r="C60" t="n">
         <v>1</v>
       </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3112,15 +3112,15 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
@@ -3161,12 +3161,12 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3203,12 +3203,12 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
@@ -3244,15 +3244,15 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
@@ -3260,16 +3260,16 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
@@ -3288,23 +3288,23 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3332,23 +3332,23 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3357,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -3381,10 +3381,10 @@
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
@@ -3420,15 +3420,15 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
@@ -3467,38 +3467,38 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>4</v>
       </c>
-      <c r="D69" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3508,17 +3508,17 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" t="n">
         <v>5</v>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3533,16 +3533,16 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3552,15 +3552,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
@@ -3571,22 +3571,22 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3601,10 +3601,10 @@
       <c r="C72" t="n">
         <v>0</v>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
@@ -3645,12 +3645,12 @@
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -3687,12 +3687,12 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3728,23 +3728,23 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3753,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -3777,10 +3777,10 @@
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
@@ -3821,12 +3821,12 @@
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3865,10 +3865,10 @@
       <c r="C78" t="n">
         <v>0</v>
       </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
@@ -3909,10 +3909,10 @@
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
@@ -3953,10 +3953,10 @@
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
@@ -3997,10 +3997,10 @@
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
@@ -4041,10 +4041,10 @@
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
@@ -4085,24 +4085,24 @@
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -4129,10 +4129,10 @@
       <c r="C84" t="n">
         <v>0</v>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -4171,20 +4171,20 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -4193,10 +4193,10 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4217,12 +4217,12 @@
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -4261,10 +4261,10 @@
       <c r="C87" t="n">
         <v>0</v>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
@@ -4305,15 +4305,15 @@
       <c r="C88" t="n">
         <v>0</v>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4344,26 +4344,26 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
         <v>3</v>
       </c>
-      <c r="D89" t="n">
-        <v>3</v>
-      </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -4391,12 +4391,12 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
@@ -4413,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -4432,15 +4432,15 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
@@ -4476,41 +4476,41 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>7</v>
       </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
+      <c r="J92" t="n">
+        <v>2</v>
+      </c>
+      <c r="K92" t="n">
         <v>4</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>8</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2</v>
-      </c>
       <c r="L92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4520,41 +4520,41 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
-      <c r="D93" t="n">
-        <v>2</v>
-      </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
       <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>3</v>
       </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
+        <v>6</v>
+      </c>
+      <c r="K93" t="n">
         <v>4</v>
       </c>
-      <c r="K93" t="n">
-        <v>6</v>
-      </c>
       <c r="L93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -4564,41 +4564,41 @@
         </is>
       </c>
       <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="n">
         <v>4</v>
       </c>
-      <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="I94" t="n">
+        <v>6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
         <v>4</v>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="n">
-        <v>2</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4</v>
-      </c>
-      <c r="J94" t="n">
-        <v>3</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
       <c r="L94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4608,38 +4608,38 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>9</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -4655,14 +4655,14 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
         <v>2</v>
@@ -4696,41 +4696,41 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
-      <c r="D97" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
       <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
         <v>4</v>
       </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
       <c r="L97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4740,41 +4740,41 @@
         </is>
       </c>
       <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
         <v>6</v>
       </c>
-      <c r="C98" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6</v>
-      </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
       <c r="F98" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>5</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="n">
         <v>3</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -4784,17 +4784,17 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -4803,22 +4803,22 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -4831,38 +4831,38 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" t="n">
         <v>3</v>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>6</v>
+      </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
         <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4877,15 +4877,15 @@
       <c r="C101" t="n">
         <v>0</v>
       </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4921,15 +4921,15 @@
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4965,15 +4965,15 @@
       <c r="C103" t="n">
         <v>0</v>
       </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
@@ -511,42 +511,42 @@
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -555,33 +555,33 @@
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -599,13 +599,13 @@
           <t>光電業平</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
@@ -622,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -643,24 +643,24 @@
           <t>其他右上</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -687,27 +687,27 @@
           <t>其他右下</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -731,24 +731,24 @@
           <t>其他平</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -775,33 +775,33 @@
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -819,39 +819,39 @@
           <t>其他電子業右下</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -863,39 +863,39 @@
           <t>其他電子業平</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -907,13 +907,13 @@
           <t>化學工業右上</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -933,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -951,21 +951,21 @@
           <t>化學工業右下</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -995,15 +995,15 @@
           <t>化學工業平</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1039,42 +1039,42 @@
           <t>半導體業右上</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1083,42 +1083,42 @@
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1127,42 +1127,42 @@
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1171,15 +1171,15 @@
           <t>塑膠工業右上</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1215,21 +1215,21 @@
           <t>塑膠工業右下</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
           <t>塑膠工業平</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
@@ -1279,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1303,39 +1303,39 @@
           <t>居家生活右上</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
           <t>居家生活右下</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1391,18 +1391,18 @@
           <t>居家生活平</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1435,18 +1435,18 @@
           <t>建材營造右上</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1479,27 +1479,27 @@
           <t>建材營造右下</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1523,33 +1523,33 @@
           <t>建材營造平</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1567,13 +1567,13 @@
           <t>數位雲端右上</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1611,21 +1611,21 @@
           <t>數位雲端右下</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
           <t>數位雲端平</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
@@ -1681,16 +1681,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1699,36 +1699,36 @@
           <t>文化創意業右上</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1743,21 +1743,21 @@
           <t>文化創意業右下</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1787,36 +1787,36 @@
           <t>文化創意業平</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -1831,18 +1831,18 @@
           <t>橡膠工業右上</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1875,13 +1875,13 @@
           <t>橡膠工業右下</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
@@ -1919,13 +1919,13 @@
           <t>橡膠工業平</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
@@ -1963,13 +1963,13 @@
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -2007,13 +2007,13 @@
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
@@ -2051,13 +2051,13 @@
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
@@ -2095,13 +2095,13 @@
           <t>汽車工業右上</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
@@ -2139,13 +2139,13 @@
           <t>汽車工業右下</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
@@ -2156,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2183,13 +2183,13 @@
           <t>汽車工業平</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
@@ -2197,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2227,13 +2227,13 @@
           <t>油電燃氣業右下</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
@@ -2271,13 +2271,13 @@
           <t>油電燃氣業平</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
@@ -2315,13 +2315,13 @@
           <t>玻璃陶瓷右上</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
@@ -2359,13 +2359,13 @@
           <t>玻璃陶瓷右下</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
@@ -2403,13 +2403,13 @@
           <t>玻璃陶瓷平</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
@@ -2447,13 +2447,13 @@
           <t>生技醫療業右上</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
@@ -2461,13 +2461,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2491,42 +2491,42 @@
           <t>生技醫療業右下</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
         <v>3</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2536,10 +2536,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2581,15 +2581,15 @@
           <t>紡織纖維右上</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
         <v>2</v>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2601,22 +2601,22 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2625,33 +2625,33 @@
           <t>紡織纖維右下</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2669,13 +2669,13 @@
           <t>紡織纖維平</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
@@ -2713,42 +2713,42 @@
           <t>綠能環保右上</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2757,15 +2757,15 @@
           <t>綠能環保右下</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2774,25 +2774,25 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2801,42 +2801,42 @@
           <t>綠能環保平</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
         <v>2</v>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2845,39 +2845,39 @@
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -2889,13 +2889,13 @@
           <t>航運業右下</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
@@ -2933,13 +2933,13 @@
           <t>航運業平</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
         <v>1</v>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -2977,13 +2977,13 @@
           <t>觀光事業右上</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3028,37 +3028,37 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3067,15 +3067,15 @@
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
         <v>1</v>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3096,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3111,13 +3111,13 @@
           <t>貿易百貨右上</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
@@ -3155,15 +3155,15 @@
           <t>貿易百貨右下</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
           <t>貿易百貨平</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
@@ -3243,18 +3243,18 @@
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>6</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
         <v>1</v>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3275,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3287,21 +3287,21 @@
           <t>資訊服務業右下</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
         <v>0</v>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3331,33 +3331,33 @@
           <t>資訊服務業平</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -3375,13 +3375,13 @@
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
         <v>0</v>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
@@ -3419,13 +3419,13 @@
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>0</v>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3463,42 +3463,42 @@
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="n">
         <v>3</v>
       </c>
-      <c r="C69" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>2</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3507,39 +3507,39 @@
           <t>通信網路業右下</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>3</v>
       </c>
-      <c r="C70" t="n">
-        <v>5</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
           <t>通信網路業平</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>6</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
         <v>1</v>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
@@ -3565,25 +3565,25 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -3592,16 +3592,16 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
+          <t>造紙工業右上</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3627,27 +3627,27 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
+          <t>造紙工業右下</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3680,16 +3680,16 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
+          <t>造紙工業平</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3724,16 +3724,16 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
+          <t>運動休閒右上</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
@@ -3753,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -3768,18 +3768,18 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
+          <t>運動休閒右下</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3812,18 +3812,18 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
+          <t>運動休閒平</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
         <v>0</v>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3856,16 +3856,16 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
@@ -3900,16 +3900,16 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
+          <t>金融保險右下</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
         <v>0</v>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
@@ -3944,16 +3944,16 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
+          <t>金融保險平</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
         <v>0</v>
       </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
@@ -3988,16 +3988,16 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
+          <t>金融業右上</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
         <v>0</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
@@ -4032,16 +4032,16 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
+          <t>金融業右下</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
@@ -4076,30 +4076,30 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
+          <t>金融業平</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
         <v>0</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -4120,24 +4120,24 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4149,31 +4149,31 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
+          <t>鋼鐵工業右下</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
@@ -4181,19 +4181,19 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4208,16 +4208,16 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
+          <t>鋼鐵工業平</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
         <v>0</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -4246,22 +4246,22 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
+          <t>電器電纜右上</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -4296,16 +4296,16 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
+          <t>電器電纜右下</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
         <v>0</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
@@ -4340,16 +4340,16 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>3</v>
-      </c>
+          <t>電器電纜平</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>3</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
@@ -4357,22 +4357,22 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -4384,36 +4384,36 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
+          <t>電子通路業右上</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -4428,16 +4428,16 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
+          <t>電子通路業右下</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4472,42 +4472,42 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
-      </c>
+          <t>電子通路業平</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
         <v>0</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -4516,16 +4516,16 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>4</v>
-      </c>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>4</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
       <c r="E93" t="n">
         <v>3</v>
       </c>
@@ -4533,69 +4533,69 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
+          <t>電子零組件業右下</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>3</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
       <c r="E94" t="n">
         <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
+        <v>5</v>
+      </c>
+      <c r="I94" t="n">
         <v>4</v>
       </c>
-      <c r="I94" t="n">
-        <v>6</v>
-      </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>4</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M94" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
@@ -4604,60 +4604,60 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
+          <t>電子零組件業平</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>10</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
       <c r="E95" t="n">
         <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
+          <t>電機機械右上</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
       <c r="E96" t="n">
         <v>2</v>
       </c>
@@ -4665,69 +4665,69 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
+          <t>電機機械右下</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
         <v>1</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -4736,60 +4736,60 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2</v>
-      </c>
+          <t>電機機械平</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>6</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
       <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>5</v>
       </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
         <v>3</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="n">
-        <v>5</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="n">
-        <v>5</v>
-      </c>
       <c r="N98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>2</v>
-      </c>
+          <t>電腦及週邊設備業右上</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
@@ -4797,69 +4797,69 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
+          <t>電腦及週邊設備業右下</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>3</v>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="n">
-        <v>6</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -4868,42 +4868,42 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -4912,21 +4912,21 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
+          <t>食品工業右上</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
         <v>0</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -4956,44 +4956,88 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
     </row>
@@ -511,42 +511,44 @@
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -555,15 +557,17 @@
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -572,25 +576,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -599,30 +603,32 @@
           <t>光電業平</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -643,18 +649,20 @@
           <t>其他右上</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -675,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -687,21 +695,23 @@
           <t>其他右下</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -719,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -731,18 +741,20 @@
           <t>其他平</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -757,16 +769,16 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -775,36 +787,38 @@
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -819,39 +833,41 @@
           <t>其他電子業右下</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -863,42 +879,44 @@
           <t>其他電子業平</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -907,7 +925,9 @@
           <t>化學工業右上</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
@@ -930,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -951,9 +971,11 @@
           <t>化學工業右下</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -962,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -995,9 +1017,11 @@
           <t>化學工業平</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1018,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1039,42 +1063,44 @@
           <t>半導體業右上</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1083,42 +1109,44 @@
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1127,42 +1155,44 @@
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1171,9 +1201,11 @@
           <t>塑膠工業右上</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1203,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1215,15 +1247,17 @@
           <t>塑膠工業右下</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1259,7 +1293,9 @@
           <t>塑膠工業平</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
@@ -1276,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1288,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1303,12 +1339,14 @@
           <t>居家生活右上</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1317,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1347,7 +1385,9 @@
           <t>居家生活右下</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
@@ -1367,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1391,12 +1431,14 @@
           <t>居家生活平</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1417,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1435,12 +1477,14 @@
           <t>建材營造右上</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1458,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1479,21 +1523,23 @@
           <t>建材營造右下</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1523,12 +1569,14 @@
           <t>建材營造平</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1537,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1555,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1567,7 +1615,9 @@
           <t>數位雲端右上</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
@@ -1581,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1611,15 +1661,17 @@
           <t>數位雲端右下</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1655,7 +1707,9 @@
           <t>數位雲端平</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
@@ -1678,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1699,30 +1753,32 @@
           <t>文化創意業右上</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
         <v>3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>3</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1734,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1743,15 +1799,17 @@
           <t>文化創意業右下</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1787,12 +1845,14 @@
           <t>文化創意業平</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1801,16 +1861,16 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1831,12 +1891,14 @@
           <t>橡膠工業右上</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1875,7 +1937,9 @@
           <t>橡膠工業右下</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
@@ -1919,9 +1983,11 @@
           <t>橡膠工業平</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1963,7 +2029,9 @@
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
@@ -2007,7 +2075,9 @@
           <t>水泥工業右下</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
@@ -2051,7 +2121,9 @@
           <t>水泥工業平</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
@@ -2095,7 +2167,9 @@
           <t>汽車工業右上</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
@@ -2139,7 +2213,9 @@
           <t>汽車工業右下</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
@@ -2153,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2183,7 +2259,9 @@
           <t>汽車工業平</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
@@ -2194,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2215,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2227,7 +2305,9 @@
           <t>油電燃氣業右下</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
@@ -2271,7 +2351,9 @@
           <t>油電燃氣業平</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
@@ -2315,7 +2397,9 @@
           <t>玻璃陶瓷右上</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
@@ -2359,7 +2443,9 @@
           <t>玻璃陶瓷右下</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
@@ -2403,7 +2489,9 @@
           <t>玻璃陶瓷平</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
@@ -2447,7 +2535,9 @@
           <t>生技醫療業右上</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
@@ -2458,31 +2548,31 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2491,15 +2581,17 @@
           <t>生技醫療業右下</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2508,25 +2600,25 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2545,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2563,16 +2655,16 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2581,9 +2673,11 @@
           <t>紡織纖維右上</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2598,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2610,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2625,12 +2719,14 @@
           <t>紡織纖維右下</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2639,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2669,7 +2765,9 @@
           <t>紡織纖維平</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
@@ -2704,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2713,42 +2811,44 @@
           <t>綠能環保右上</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2757,9 +2857,11 @@
           <t>綠能環保右下</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2771,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -2801,12 +2903,14 @@
           <t>綠能環保平</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2818,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2830,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -2845,39 +2949,41 @@
           <t>航運業右上</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -2889,7 +2995,9 @@
           <t>航運業右下</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
@@ -2933,21 +3041,23 @@
           <t>航運業平</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2962,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -2977,21 +3087,23 @@
           <t>觀光事業右上</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3006,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3028,19 +3140,19 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3052,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3067,18 +3179,20 @@
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3093,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
         <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3111,7 +3225,9 @@
           <t>貿易百貨右上</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
@@ -3155,9 +3271,11 @@
           <t>貿易百貨右下</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -3184,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3199,7 +3317,9 @@
           <t>貿易百貨平</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
@@ -3243,7 +3363,9 @@
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
@@ -3251,16 +3373,16 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -3272,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -3287,15 +3409,17 @@
           <t>資訊服務業右下</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3331,15 +3455,17 @@
           <t>資訊服務業平</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3348,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3375,7 +3501,9 @@
           <t>農業科技業右上</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
@@ -3419,7 +3547,9 @@
           <t>農業科技業右下</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
@@ -3451,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3463,42 +3593,44 @@
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3507,9 +3639,11 @@
           <t>通信網路業右下</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3524,16 +3658,16 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3551,9 +3685,11 @@
           <t>通信網路業平</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3562,28 +3698,28 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -3595,9 +3731,11 @@
           <t>造紙工業右上</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3612,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -3624,13 +3762,13 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3639,7 +3777,9 @@
           <t>造紙工業右下</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
@@ -3683,7 +3823,9 @@
           <t>造紙工業平</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
@@ -3727,7 +3869,9 @@
           <t>運動休閒右上</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
@@ -3738,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3771,15 +3915,17 @@
           <t>運動休閒右下</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3788,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3815,7 +3961,9 @@
           <t>運動休閒平</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
@@ -3859,9 +4007,11 @@
           <t>金融保險右上</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3903,7 +4053,9 @@
           <t>金融保險右下</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
@@ -3947,7 +4099,9 @@
           <t>金融保險平</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
@@ -3991,7 +4145,9 @@
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
@@ -4035,7 +4191,9 @@
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
@@ -4079,7 +4237,9 @@
           <t>金融業平</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
@@ -4123,21 +4283,23 @@
           <t>鋼鐵工業右上</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4152,13 +4314,13 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4167,7 +4329,9 @@
           <t>鋼鐵工業右下</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
@@ -4187,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -4202,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4211,15 +4375,17 @@
           <t>鋼鐵工業平</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4228,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -4255,9 +4421,11 @@
           <t>電器電纜右上</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -4281,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -4299,7 +4467,9 @@
           <t>電器電纜右下</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
@@ -4343,12 +4513,14 @@
           <t>電器電纜平</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -4387,18 +4559,20 @@
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4410,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4422,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4431,7 +4605,9 @@
           <t>電子通路業右下</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
@@ -4448,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4475,7 +4651,9 @@
           <t>電子通路業平</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
@@ -4519,42 +4697,44 @@
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
       <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
         <v>6</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
         <v>3</v>
       </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>4</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4563,18 +4743,20 @@
           <t>電子零組件業右下</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>4</v>
+      </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G94" t="n">
         <v>5</v>
@@ -4583,22 +4765,22 @@
         <v>5</v>
       </c>
       <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
         <v>4</v>
       </c>
-      <c r="J94" t="n">
-        <v>2</v>
-      </c>
       <c r="K94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4607,33 +4789,35 @@
           <t>電子零組件業平</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
         <v>4</v>
       </c>
-      <c r="F95" t="n">
-        <v>3</v>
-      </c>
-      <c r="G95" t="n">
-        <v>7</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
       <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
         <v>5</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
       <c r="K95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
@@ -4642,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4651,30 +4835,32 @@
           <t>電機機械右上</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>4</v>
+      </c>
       <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="n">
         <v>4</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4695,9 +4881,11 @@
           <t>電機機械右下</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4706,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4715,16 +4903,16 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
         <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -4739,42 +4927,44 @@
           <t>電機機械平</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
       <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
         <v>5</v>
       </c>
-      <c r="D98" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4783,36 +4973,38 @@
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
         <v>5</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
       <c r="K99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -4827,9 +5019,11 @@
           <t>電腦及週邊設備業右下</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4838,31 +5032,31 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>3</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
       <c r="K100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4871,39 +5065,41 @@
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>4</v>
+      </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K101" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -4915,12 +5111,14 @@
           <t>食品工業右上</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -4959,12 +5157,14 @@
           <t>食品工業右下</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -4994,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -5003,12 +5203,14 @@
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>2025-05-20</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -512,10 +517,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -530,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -550,6 +555,9 @@
       <c r="N2" t="n">
         <v>6</v>
       </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -576,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -595,6 +603,9 @@
       </c>
       <c r="N3" t="n">
         <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -604,10 +615,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -641,6 +652,9 @@
       </c>
       <c r="N4" t="n">
         <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -662,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -677,16 +691,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -729,10 +746,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -754,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -775,9 +795,12 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -806,10 +829,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -826,6 +849,9 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -837,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -861,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -871,6 +897,9 @@
       </c>
       <c r="N9" t="n">
         <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -883,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -892,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -907,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -917,6 +946,9 @@
       </c>
       <c r="N10" t="n">
         <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -964,6 +996,9 @@
       <c r="N11" t="n">
         <v>0</v>
       </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1010,6 +1045,9 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1056,6 +1094,9 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1073,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -1082,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1102,6 +1143,9 @@
       <c r="N14" t="n">
         <v>3</v>
       </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1122,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
@@ -1137,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -1147,6 +1191,9 @@
       </c>
       <c r="N15" t="n">
         <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1165,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -1180,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
@@ -1194,6 +1241,9 @@
       <c r="N16" t="n">
         <v>0</v>
       </c>
+      <c r="O16" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1240,6 +1290,9 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1286,6 +1339,9 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1332,6 +1388,9 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1378,6 +1437,9 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1424,6 +1486,9 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1470,6 +1535,9 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1516,6 +1584,9 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1562,6 +1633,9 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1608,6 +1682,9 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1654,6 +1731,9 @@
       <c r="N26" t="n">
         <v>0</v>
       </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1700,6 +1780,9 @@
       <c r="N27" t="n">
         <v>0</v>
       </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1746,6 +1829,9 @@
       <c r="N28" t="n">
         <v>0</v>
       </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1763,13 +1849,13 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1792,6 +1878,9 @@
       <c r="N29" t="n">
         <v>2</v>
       </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1838,6 +1927,9 @@
       <c r="N30" t="n">
         <v>0</v>
       </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1855,13 +1947,13 @@
         <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1882,6 +1974,9 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1895,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1928,6 +2023,9 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1976,6 +2074,9 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1987,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2020,6 +2121,9 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2068,6 +2172,9 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2114,6 +2221,9 @@
       <c r="N36" t="n">
         <v>0</v>
       </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2160,6 +2270,9 @@
       <c r="N37" t="n">
         <v>0</v>
       </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2206,6 +2319,9 @@
       <c r="N38" t="n">
         <v>0</v>
       </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2252,6 +2368,9 @@
       <c r="N39" t="n">
         <v>0</v>
       </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2298,11 +2417,14 @@
       <c r="N40" t="n">
         <v>0</v>
       </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業右上</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2342,13 +2464,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2388,13 +2513,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2434,13 +2562,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2480,13 +2611,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2526,13 +2660,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2548,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2572,29 +2709,32 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2603,35 +2743,38 @@
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2640,22 +2783,22 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2665,16 +2808,19 @@
       </c>
       <c r="N48" t="n">
         <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2683,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2698,32 +2844,35 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2735,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2750,26 +2899,29 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2781,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2802,32 +2954,35 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2836,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2845,16 +3000,19 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2864,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2885,32 +3043,35 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2919,34 +3080,37 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2965,44 +3129,47 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3011,50 +3178,53 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -3072,19 +3242,22 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3100,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -3124,32 +3297,35 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3161,22 +3337,25 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3186,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -3195,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3207,29 +3386,32 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -3253,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3262,17 +3444,20 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -3302,23 +3487,26 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -3348,50 +3536,53 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3400,20 +3591,23 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -3422,22 +3616,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3446,13 +3640,16 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
+        <v>5</v>
+      </c>
+      <c r="O65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3462,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3474,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3492,13 +3689,16 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3508,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3520,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3538,13 +3738,16 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3581,44 +3784,47 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3630,38 +3836,41 @@
         <v>1</v>
       </c>
       <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>2</v>
@@ -3673,16 +3882,19 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3698,37 +3910,40 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3744,19 +3959,19 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -3765,20 +3980,23 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -3796,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3808,19 +4026,22 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3860,13 +4081,16 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3882,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3906,13 +4130,16 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3922,22 +4149,22 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3952,13 +4179,16 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3968,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3980,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -3998,17 +4228,20 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -4044,17 +4277,20 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -4090,13 +4326,16 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4136,13 +4375,16 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4182,13 +4424,16 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4228,13 +4473,16 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -4274,29 +4522,32 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4314,35 +4565,38 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4360,19 +4614,22 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -4382,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -4394,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4412,23 +4669,26 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4440,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -4449,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -4458,17 +4718,20 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -4495,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4504,20 +4767,23 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -4550,38 +4816,41 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4596,13 +4865,16 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4612,22 +4884,22 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4642,13 +4914,16 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4670,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4688,63 +4963,69 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -4753,44 +5034,47 @@
         <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
       </c>
       <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
         <v>4</v>
-      </c>
-      <c r="K94" t="n">
-        <v>3</v>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -4799,26 +5083,26 @@
         <v>3</v>
       </c>
       <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4</v>
+      </c>
+      <c r="K95" t="n">
         <v>3</v>
       </c>
-      <c r="F95" t="n">
-        <v>5</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>5</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1</v>
-      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4827,31 +5111,34 @@
       </c>
       <c r="N95" t="n">
         <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>4</v>
@@ -4860,35 +5147,38 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4897,19 +5187,19 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -4918,250 +5208,268 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
         <v>3</v>
       </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>5</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>4</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>3</v>
       </c>
-      <c r="J101" t="n">
-        <v>6</v>
-      </c>
       <c r="K101" t="n">
         <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -5194,52 +5502,107 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
     </row>
@@ -517,46 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -566,13 +566,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -618,43 +618,43 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -688,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -786,16 +786,16 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -811,34 +811,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -872,34 +872,34 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -918,13 +918,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1105,46 +1105,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
         <v>4</v>
       </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1154,46 +1154,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>4</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1206,43 +1206,43 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1279,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1567,25 +1567,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1598,16 +1598,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1674,16 +1674,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1840,46 +1840,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
         <v>3</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2</v>
-      </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1889,13 +1889,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1938,28 +1938,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2342,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2473,7 +2473,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2522,7 +2522,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2571,7 +2571,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2620,7 +2620,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2669,7 +2669,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2706,53 +2706,53 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2761,66 +2761,66 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2829,22 +2829,22 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
@@ -2865,11 +2865,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2881,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2899,29 +2899,29 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -2963,23 +2963,23 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3012,17 +3012,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3061,11 +3061,11 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3089,16 +3089,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3110,66 +3110,66 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3178,22 +3178,22 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3208,20 +3208,20 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3257,23 +3257,23 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -3285,44 +3285,44 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -3337,44 +3337,44 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3383,35 +3383,35 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3502,11 +3502,11 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3551,11 +3551,11 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -3564,22 +3564,22 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3600,38 +3600,38 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3640,26 +3640,26 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3698,7 +3698,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -3796,32 +3796,32 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3830,50 +3830,50 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -3894,11 +3894,11 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -3907,25 +3907,25 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -3943,11 +3943,11 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -3959,22 +3959,22 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
@@ -3986,17 +3986,17 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4041,7 +4041,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -4090,7 +4090,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4139,14 +4139,14 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -4210,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4286,11 +4286,11 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -4335,7 +4335,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4384,7 +4384,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4433,7 +4433,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4482,7 +4482,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -4531,20 +4531,20 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -4562,16 +4562,16 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4580,26 +4580,26 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -4623,20 +4623,20 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -4648,10 +4648,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4700,13 +4700,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4727,11 +4727,11 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4776,11 +4776,11 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -4825,29 +4825,29 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4862,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4884,22 +4884,22 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4914,16 +4914,16 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4972,38 +4972,38 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -5012,47 +5012,47 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>4</v>
+      </c>
+      <c r="J94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>6</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2</v>
-      </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
@@ -5061,56 +5061,56 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
         <v>4</v>
       </c>
-      <c r="G95" t="n">
-        <v>5</v>
-      </c>
       <c r="H95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
         <v>1</v>
@@ -5119,44 +5119,44 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5168,35 +5168,35 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -5211,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -5227,31 +5227,31 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -5266,96 +5266,96 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>5</v>
       </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
       <c r="H99" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>3</v>
       </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
       <c r="J100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O100" t="n">
         <v>1</v>
@@ -5364,41 +5364,41 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -5407,47 +5407,47 @@
         <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -5456,20 +5456,20 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -5511,14 +5511,14 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -5554,55 +5554,6 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>2025-05-22</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -517,7 +522,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -532,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -558,6 +563,9 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -607,6 +615,9 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -615,7 +626,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -630,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -654,6 +665,9 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -673,10 +687,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -700,10 +714,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -754,6 +771,9 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -803,6 +823,9 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -852,6 +875,9 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -866,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -901,6 +927,9 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -915,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -949,6 +978,9 @@
       </c>
       <c r="O10" t="n">
         <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -999,6 +1031,9 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1022,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1046,6 +1081,9 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1097,6 +1135,9 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1146,6 +1187,9 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1195,6 +1239,9 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1224,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1244,6 +1291,9 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1293,6 +1343,9 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1342,6 +1395,9 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1391,6 +1447,9 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1440,6 +1499,9 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1448,7 +1510,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1487,6 +1549,9 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1497,7 +1562,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1536,6 +1601,9 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1587,6 +1655,9 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1636,6 +1707,9 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1685,6 +1759,9 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1734,6 +1811,9 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1783,6 +1863,9 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1832,6 +1915,9 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1846,13 +1932,13 @@
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1881,6 +1967,9 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1892,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1928,6 +2017,9 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1941,17 +2033,17 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
         <v>3</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
@@ -1977,6 +2069,9 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1987,7 +2082,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2026,6 +2121,9 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2077,6 +2175,9 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2085,7 +2186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2124,6 +2225,9 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2175,6 +2279,9 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2224,6 +2331,9 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2273,6 +2383,9 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2322,6 +2435,9 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2371,6 +2487,9 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2420,6 +2539,9 @@
       <c r="O40" t="n">
         <v>0</v>
       </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2469,6 +2591,9 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2518,6 +2643,9 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2567,6 +2695,9 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2616,6 +2747,9 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2665,6 +2799,9 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2682,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2697,23 +2834,26 @@
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
         <v>3</v>
       </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2752,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2761,6 +2901,9 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2795,22 +2938,25 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2861,6 +3007,9 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2910,6 +3059,9 @@
       <c r="O50" t="n">
         <v>0</v>
       </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2959,6 +3111,9 @@
       <c r="O51" t="n">
         <v>0</v>
       </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3008,6 +3163,9 @@
       <c r="O52" t="n">
         <v>0</v>
       </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3057,6 +3215,9 @@
       <c r="O53" t="n">
         <v>0</v>
       </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3106,6 +3267,9 @@
       <c r="O54" t="n">
         <v>0</v>
       </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3155,6 +3319,9 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3204,6 +3371,9 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3253,6 +3423,9 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3302,6 +3475,9 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3351,6 +3527,9 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3400,6 +3579,9 @@
       <c r="O60" t="n">
         <v>0</v>
       </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3449,6 +3631,9 @@
       <c r="O61" t="n">
         <v>0</v>
       </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3498,6 +3683,9 @@
       <c r="O62" t="n">
         <v>0</v>
       </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -3547,6 +3735,9 @@
       <c r="O63" t="n">
         <v>0</v>
       </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3558,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3588,12 +3779,15 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3645,6 +3839,9 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -3694,6 +3891,9 @@
       <c r="O66" t="n">
         <v>0</v>
       </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3743,6 +3943,9 @@
       <c r="O67" t="n">
         <v>0</v>
       </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3792,6 +3995,9 @@
       <c r="O68" t="n">
         <v>0</v>
       </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -3836,10 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3890,6 +4099,9 @@
       <c r="O70" t="n">
         <v>0</v>
       </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3934,9 +4146,12 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3988,6 +4203,9 @@
       <c r="O72" t="n">
         <v>0</v>
       </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4037,6 +4255,9 @@
       <c r="O73" t="n">
         <v>0</v>
       </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4086,6 +4307,9 @@
       <c r="O74" t="n">
         <v>0</v>
       </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4135,6 +4359,9 @@
       <c r="O75" t="n">
         <v>0</v>
       </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -4184,6 +4411,9 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4233,6 +4463,9 @@
       <c r="O77" t="n">
         <v>0</v>
       </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4282,6 +4515,9 @@
       <c r="O78" t="n">
         <v>0</v>
       </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4331,6 +4567,9 @@
       <c r="O79" t="n">
         <v>0</v>
       </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -4380,6 +4619,9 @@
       <c r="O80" t="n">
         <v>0</v>
       </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -4429,6 +4671,9 @@
       <c r="O81" t="n">
         <v>0</v>
       </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -4478,6 +4723,9 @@
       <c r="O82" t="n">
         <v>0</v>
       </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -4527,6 +4775,9 @@
       <c r="O83" t="n">
         <v>0</v>
       </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -4576,6 +4827,9 @@
       <c r="O84" t="n">
         <v>0</v>
       </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -4625,6 +4879,9 @@
       <c r="O85" t="n">
         <v>0</v>
       </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -4674,6 +4931,9 @@
       <c r="O86" t="n">
         <v>0</v>
       </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -4723,6 +4983,9 @@
       <c r="O87" t="n">
         <v>0</v>
       </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -4772,6 +5035,9 @@
       <c r="O88" t="n">
         <v>0</v>
       </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -4821,6 +5087,9 @@
       <c r="O89" t="n">
         <v>0</v>
       </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -4870,6 +5139,9 @@
       <c r="O90" t="n">
         <v>0</v>
       </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -4919,6 +5191,9 @@
       <c r="O91" t="n">
         <v>0</v>
       </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -4968,6 +5243,9 @@
       <c r="O92" t="n">
         <v>0</v>
       </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -4979,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
         <v>2</v>
@@ -5015,7 +5293,10 @@
         <v>5</v>
       </c>
       <c r="O93" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -5066,6 +5347,9 @@
       <c r="O94" t="n">
         <v>0</v>
       </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -5077,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -5113,7 +5397,10 @@
         <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -5162,7 +5449,10 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5199,7 +5489,7 @@
         <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -5211,6 +5501,9 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5248,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
@@ -5260,6 +5553,9 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5311,6 +5607,9 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -5334,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5360,6 +5659,9 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -5383,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>3</v>
@@ -5409,6 +5711,9 @@
       <c r="O101" t="n">
         <v>0</v>
       </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -5458,6 +5763,9 @@
       <c r="O102" t="n">
         <v>0</v>
       </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -5466,7 +5774,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -5505,6 +5813,9 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5554,6 +5865,9 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,77 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
     </row>
@@ -528,43 +523,40 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7</v>
-      </c>
       <c r="N2" t="n">
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -574,13 +566,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -589,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -601,22 +593,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -626,28 +615,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -656,19 +645,16 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -678,49 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -730,16 +713,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -754,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -769,9 +752,6 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -788,16 +768,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -809,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -821,9 +801,6 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,49 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -889,19 +863,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -925,9 +899,6 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -944,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -962,25 +933,22 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1002,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1011,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1029,10 +997,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1042,13 +1007,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1069,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1078,13 +1043,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1106,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1121,22 +1083,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1146,48 +1105,45 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
         <v>3</v>
       </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,49 +1154,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1250,49 +1203,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
         <v>5</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1317,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1341,9 +1291,6 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1357,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1393,9 +1340,6 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1447,9 +1391,6 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1458,7 +1399,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1479,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1497,9 +1438,6 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1519,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1528,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1546,12 +1484,9 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1562,10 +1497,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1577,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1586,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1601,9 +1536,6 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,7 +1546,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1626,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1641,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1653,9 +1585,6 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1675,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1705,9 +1634,6 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1718,28 +1644,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1754,12 +1680,9 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1773,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1782,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1809,9 +1732,6 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1825,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1855,16 +1775,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1886,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1913,9 +1830,6 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1929,45 +1843,42 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
         <v>3</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1981,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2017,9 +1928,6 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2030,25 +1938,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2069,9 +1977,6 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2123,9 +2028,6 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2175,9 +2077,6 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2186,7 +2085,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2225,9 +2124,6 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2279,9 +2175,6 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2331,9 +2224,6 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2383,9 +2273,6 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2433,10 +2320,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2449,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2458,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2485,9 +2369,6 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2498,7 +2379,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2507,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2519,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2528,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -2537,9 +2418,6 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2591,9 +2469,6 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2643,9 +2518,6 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2695,9 +2567,6 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2745,10 +2614,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2799,9 +2665,6 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2810,48 +2673,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
         <v>4</v>
       </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
-      </c>
-      <c r="P46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2862,37 +2722,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2901,10 +2761,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2914,7 +2771,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2923,40 +2780,37 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2972,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2981,16 +2835,16 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -2999,16 +2853,13 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3018,22 +2869,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3051,16 +2902,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3094,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3103,15 +2951,12 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3125,13 +2970,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -3143,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3152,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -3161,9 +3006,6 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3177,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -3189,16 +3031,16 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -3213,9 +3055,6 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3232,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -3241,33 +3080,30 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3278,37 +3114,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3317,9 +3153,6 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3371,9 +3204,6 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3382,25 +3212,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3409,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3421,9 +3251,6 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3434,48 +3261,45 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3486,34 +3310,34 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3522,12 +3346,9 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3538,22 +3359,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3562,25 +3383,22 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3631,9 +3449,6 @@
       <c r="O61" t="n">
         <v>0</v>
       </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3660,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3669,47 +3484,44 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3718,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3733,78 +3545,72 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3837,23 +3643,20 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -3865,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3889,16 +3692,13 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3923,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3941,32 +3741,29 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3975,59 +3772,56 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4036,56 +3830,53 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>2</v>
-      </c>
-      <c r="P69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -4094,19 +3885,16 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -4116,49 +3904,46 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -4177,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4189,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4202,15 +3987,12 @@
       </c>
       <c r="O72" t="n">
         <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -4253,20 +4035,17 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -4305,16 +4084,13 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -4324,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4357,23 +4133,20 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -4385,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -4409,16 +4182,13 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
-      </c>
-      <c r="P76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4461,16 +4231,13 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4513,16 +4280,13 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4565,16 +4329,13 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4617,16 +4378,13 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4669,16 +4427,13 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4721,20 +4476,17 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -4752,16 +4504,16 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4773,29 +4525,26 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -4810,31 +4559,28 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -4844,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -4853,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4871,29 +4617,26 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -4905,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4929,16 +4672,13 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4966,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4981,16 +4721,13 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -5033,26 +4770,23 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -5070,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -5085,38 +4819,35 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -5131,22 +4862,19 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -5159,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5189,38 +4917,35 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -5229,44 +4954,41 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
         <v>3</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5290,102 +5012,96 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>6</v>
-      </c>
-      <c r="P93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
         <v>3</v>
       </c>
-      <c r="D94" t="n">
-        <v>2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>5</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5</v>
-      </c>
-      <c r="G94" t="n">
-        <v>5</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4</v>
-      </c>
-      <c r="J94" t="n">
-        <v>3</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1</v>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>1</v>
-      </c>
       <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>2</v>
@@ -5394,44 +5110,41 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -5440,25 +5153,22 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
-      </c>
-      <c r="P96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -5468,28 +5178,28 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -5501,203 +5211,191 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
-      </c>
-      <c r="P97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G98" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
         <v>3</v>
       </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O99" t="n">
         <v>1</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -5706,23 +5404,20 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -5746,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -5761,20 +5456,17 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -5807,67 +5499,12 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0</v>
-      </c>
-      <c r="P104" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
     </row>
@@ -517,46 +517,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -566,13 +566,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -676,34 +676,34 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -774,16 +774,16 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -811,40 +811,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -967,16 +967,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1031,22 +1031,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1105,46 +1105,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1154,46 +1154,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1203,34 +1203,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
         <v>3</v>
       </c>
-      <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
       <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1346,11 +1346,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>塑膠工業平</t>
+          <t>居家生活右上</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>居家生活右上</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1405,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>居家生活右下</t>
+          <t>居家生活平</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1493,20 +1493,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>建材營造右下</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1591,14 +1591,14 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>建材營造右下</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1640,17 +1640,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1674,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1689,14 +1689,14 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>數位雲端右下</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1723,22 +1723,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>數位雲端右下</t>
+          <t>數位雲端平</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1787,38 +1787,38 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>數位雲端平</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1836,20 +1836,20 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>文化創意業右下</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1885,11 +1885,11 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>文化創意業右下</t>
+          <t>文化創意業平</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1934,14 +1934,14 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>文化創意業平</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2032,7 +2032,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2081,7 +2081,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2130,7 +2130,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右上</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2179,7 +2179,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2228,11 +2228,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2277,7 +2277,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2317,23 +2317,23 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2375,11 +2375,11 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2473,7 +2473,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2522,7 +2522,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2571,23 +2571,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2596,59 +2596,59 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2657,154 +2657,154 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -2816,7 +2816,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2838,25 +2838,25 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -2865,20 +2865,20 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -2914,23 +2914,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2963,11 +2963,11 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -2979,16 +2979,16 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3012,26 +3012,26 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3061,7 +3061,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3110,29 +3110,29 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3175,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3208,11 +3208,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -3227,16 +3227,16 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3257,11 +3257,11 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -3273,31 +3273,31 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3306,14 +3306,14 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3325,19 +3325,19 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3383,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3453,7 +3453,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3463,22 +3463,22 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3502,26 +3502,26 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3551,14 +3551,14 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3585,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3649,7 +3649,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3692,26 +3692,26 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3720,22 +3720,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -3747,23 +3747,23 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3772,50 +3772,50 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
         <v>3</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -3845,26 +3845,26 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3992,7 +3992,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -4041,17 +4041,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4090,7 +4090,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -4100,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4139,7 +4139,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -4188,7 +4188,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4237,7 +4237,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4286,7 +4286,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4335,7 +4335,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4384,7 +4384,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4433,7 +4433,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4452,16 +4452,16 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4482,14 +4482,14 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4525,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -4568,19 +4568,19 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -4590,13 +4590,13 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4629,7 +4629,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4727,14 +4727,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -4752,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4776,17 +4776,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -4804,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -4825,7 +4825,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4874,26 +4874,26 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4902,47 +4902,47 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
         <v>3</v>
       </c>
-      <c r="E92" t="n">
-        <v>2</v>
-      </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -4951,16 +4951,16 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N92" t="n">
         <v>3</v>
@@ -4972,127 +4972,127 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
         <v>3</v>
       </c>
-      <c r="G93" t="n">
-        <v>3</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -5101,16 +5101,16 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -5119,32 +5119,32 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -5153,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5168,35 +5168,35 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5217,78 +5217,78 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
         <v>3</v>
       </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
         <v>3</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0</v>
-      </c>
       <c r="N98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -5297,16 +5297,16 @@
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
         <v>1</v>
@@ -5315,29 +5315,29 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -5346,25 +5346,25 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -5413,7 +5413,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -5456,55 +5456,6 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
     </row>
@@ -517,43 +517,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -587,25 +587,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -633,25 +633,25 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -673,34 +673,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -731,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -771,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -811,37 +811,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -915,22 +915,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -942,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -964,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1105,46 +1105,46 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1154,43 +1154,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
       </c>
       <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
         <v>4</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -1203,31 +1203,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1236,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1264,22 +1264,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -1346,11 +1346,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>居家生活右上</t>
+          <t>塑膠工業平</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>居家生活右下</t>
+          <t>居家生活右上</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1444,14 +1444,14 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>居家生活平</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>建材營造右下</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1591,14 +1591,14 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>建材營造右下</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>數位雲端右上</t>
+          <t>建材營造平</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>數位雲端右下</t>
+          <t>數位雲端右上</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -1738,7 +1738,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>數位雲端平</t>
+          <t>數位雲端右下</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1787,20 +1787,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>數位雲端平</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1830,23 +1830,23 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>文化創意業右下</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>文化創意業平</t>
+          <t>文化創意業右下</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>文化創意業平</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1983,7 +1983,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2032,7 +2032,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2081,7 +2081,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2130,7 +2130,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2179,7 +2179,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2228,11 +2228,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2277,7 +2277,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2424,7 +2424,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2473,7 +2473,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2522,7 +2522,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2571,23 +2571,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2596,166 +2596,166 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2767,14 +2767,14 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2783,22 +2783,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -2816,11 +2816,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2841,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2865,11 +2865,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2914,23 +2914,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2963,32 +2963,32 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3012,29 +3012,29 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -3061,23 +3061,23 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3169,16 +3169,16 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3208,11 +3208,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -3221,13 +3221,13 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3257,7 +3257,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3306,7 +3306,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3463,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3502,20 +3502,20 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3545,20 +3545,20 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3600,11 +3600,11 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -3649,7 +3649,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3692,53 +3692,53 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -3747,41 +3747,41 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
         <v>3</v>
       </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -3790,32 +3790,32 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3824,53 +3824,53 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3888,17 +3888,17 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3992,7 +3992,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -4041,17 +4041,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4090,14 +4090,14 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4133,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -4188,7 +4188,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4237,7 +4237,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4286,7 +4286,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4335,7 +4335,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4384,7 +4384,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4433,7 +4433,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4452,16 +4452,16 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4482,14 +4482,14 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -4498,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4531,11 +4531,11 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4568,19 +4568,19 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4614,13 +4614,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4629,7 +4629,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4727,14 +4727,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -4752,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4776,14 +4776,14 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4825,17 +4825,17 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4874,139 +4874,139 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>5</v>
       </c>
-      <c r="C92" t="n">
+      <c r="J92" t="n">
+        <v>5</v>
+      </c>
+      <c r="K92" t="n">
         <v>4</v>
       </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="L92" t="n">
         <v>3</v>
       </c>
-      <c r="F92" t="n">
-        <v>3</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
       <c r="M92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
@@ -5015,96 +5015,96 @@
         <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -5119,17 +5119,17 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -5168,20 +5168,20 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>3</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5205,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -5217,47 +5217,47 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>3</v>
       </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>3</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
       <c r="M98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -5266,44 +5266,44 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
         <v>3</v>
       </c>
-      <c r="E99" t="n">
-        <v>6</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -5315,23 +5315,23 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -5364,7 +5364,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -5401,62 +5401,111 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0</v>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
     </row>
@@ -517,46 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -572,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -581,30 +573,27 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -615,46 +604,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -667,43 +653,40 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -731,16 +714,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -749,9 +732,6 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -765,19 +745,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -789,18 +769,15 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -811,45 +788,42 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -860,31 +834,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -896,9 +870,6 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -909,45 +880,42 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -958,22 +926,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -988,15 +956,12 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,10 +972,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1022,30 +987,27 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1056,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1068,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1083,18 +1045,15 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1105,46 +1064,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1154,45 +1110,42 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,45 +1156,42 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,46 +1202,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1339,9 +1286,6 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1388,9 +1332,6 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1399,13 +1340,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1435,9 +1376,6 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1472,21 +1410,18 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1533,9 +1468,6 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1546,13 +1478,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1582,9 +1514,6 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1619,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1631,9 +1560,6 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1644,45 +1570,42 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1723,15 +1646,12 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,24 +1683,21 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1791,16 +1708,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1824,13 +1741,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1843,28 +1757,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
         <v>3</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1876,9 +1790,6 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1892,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1925,9 +1836,6 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1976,9 +1884,6 @@
       <c r="N31" t="n">
         <v>0</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2025,9 +1930,6 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2074,14 +1976,11 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右上</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2121,9 +2020,6 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2172,9 +2068,6 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2221,9 +2114,6 @@
       <c r="N36" t="n">
         <v>0</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2270,9 +2160,6 @@
       <c r="N37" t="n">
         <v>0</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2290,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2308,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2317,9 +2204,6 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2363,12 +2247,9 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2417,9 +2298,6 @@
       <c r="N40" t="n">
         <v>0</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2466,9 +2344,6 @@
       <c r="N41" t="n">
         <v>0</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2515,9 +2390,6 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2553,18 +2425,15 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2613,9 +2482,6 @@
       <c r="N44" t="n">
         <v>0</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2624,45 +2490,42 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="n">
         <v>3</v>
       </c>
-      <c r="C45" t="n">
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="n">
         <v>2</v>
       </c>
-      <c r="D45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
-      </c>
-      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2676,43 +2539,40 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
         <v>2</v>
       </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="M46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
       <c r="N46" t="n">
-        <v>2</v>
-      </c>
-      <c r="O46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2722,46 +2582,43 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
         <v>2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2771,25 +2628,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -2798,18 +2655,15 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2820,7 +2674,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2841,13 +2695,13 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2856,9 +2710,6 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2905,9 +2756,6 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2918,13 +2766,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2954,9 +2802,6 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2967,16 +2812,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -3003,10 +2848,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +2858,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -3052,9 +2894,6 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3068,28 +2907,28 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3101,9 +2940,6 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3152,9 +2988,6 @@
       <c r="N55" t="n">
         <v>0</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3163,19 +2996,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -3199,9 +3032,6 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3215,28 +3045,28 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3248,9 +3078,6 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3264,25 +3091,25 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3297,9 +3124,6 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3313,22 +3137,22 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3337,18 +3161,15 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3397,9 +3218,6 @@
       <c r="N60" t="n">
         <v>0</v>
       </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3414,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3429,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3444,9 +3262,6 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3495,9 +3310,6 @@
       <c r="N62" t="n">
         <v>0</v>
       </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -3506,25 +3318,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3539,12 +3351,9 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,21 +3388,18 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3604,7 +3410,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -3622,28 +3428,25 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3691,9 +3494,6 @@
       <c r="N66" t="n">
         <v>0</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3711,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3732,16 +3532,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3754,13 +3551,13 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3769,27 +3566,24 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3806,40 +3600,37 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
-      </c>
-      <c r="O69" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3849,46 +3640,43 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3898,34 +3686,34 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -3934,9 +3722,6 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3985,9 +3770,6 @@
       <c r="N72" t="n">
         <v>0</v>
       </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4034,9 +3816,6 @@
       <c r="N73" t="n">
         <v>0</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4083,9 +3862,6 @@
       <c r="N74" t="n">
         <v>0</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4094,10 +3870,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -4112,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4127,13 +3903,10 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -4181,9 +3954,6 @@
       <c r="N76" t="n">
         <v>0</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4230,9 +4000,6 @@
       <c r="N77" t="n">
         <v>0</v>
       </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4279,9 +4046,6 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4328,9 +4092,6 @@
       <c r="N79" t="n">
         <v>0</v>
       </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -4377,9 +4138,6 @@
       <c r="N80" t="n">
         <v>0</v>
       </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -4426,9 +4184,6 @@
       <c r="N81" t="n">
         <v>0</v>
       </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -4475,9 +4230,6 @@
       <c r="N82" t="n">
         <v>0</v>
       </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -4492,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4507,24 +4259,21 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4535,25 +4284,25 @@
         </is>
       </c>
       <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
         <v>2</v>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4571,9 +4320,6 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4608,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -4620,9 +4366,6 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
-      </c>
-      <c r="O85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4636,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4669,9 +4412,6 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4720,9 +4460,6 @@
       <c r="N87" t="n">
         <v>0</v>
       </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -4769,9 +4506,6 @@
       <c r="N88" t="n">
         <v>0</v>
       </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -4780,7 +4514,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -4792,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4816,9 +4550,6 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4829,7 +4560,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -4865,9 +4596,6 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4881,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -4893,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4914,9 +4642,6 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4927,45 +4652,42 @@
         </is>
       </c>
       <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
         <v>3</v>
       </c>
-      <c r="C92" t="n">
-        <v>2</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>5</v>
-      </c>
       <c r="K92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
-      </c>
-      <c r="O92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4979,42 +4701,39 @@
         <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
         <v>3</v>
       </c>
-      <c r="E93" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
-      </c>
-      <c r="O93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5028,28 +4747,28 @@
         <v>6</v>
       </c>
       <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="D94" t="n">
-        <v>5</v>
-      </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>2</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -5061,10 +4780,7 @@
         <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -5074,25 +4790,25 @@
         </is>
       </c>
       <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
         <v>3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -5104,16 +4820,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
         <v>2</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -5123,34 +4836,34 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -5159,9 +4872,6 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5172,19 +4882,19 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -5196,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -5208,9 +4918,6 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5221,45 +4928,42 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,46 +4974,43 @@
         </is>
       </c>
       <c r="B99" t="n">
+        <v>4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
         <v>3</v>
       </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>4</v>
-      </c>
-      <c r="E99" t="n">
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>2</v>
       </c>
-      <c r="F99" t="n">
-        <v>2</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -5319,46 +5020,43 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5395,19 +5093,16 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
-      </c>
-      <c r="O101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5429,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -5450,12 +5145,9 @@
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5484,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -5503,9 +5195,6 @@
       </c>
       <c r="N103" t="n">
         <v>0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
     </row>
@@ -512,40 +512,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
@@ -558,43 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -610,37 +610,37 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -650,43 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -818,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -837,34 +837,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -880,37 +880,37 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -984,22 +984,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1042,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1064,31 +1064,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1110,43 +1110,43 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -1180,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1205,22 +1205,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1646,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1680,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -1763,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2192,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2496,37 +2496,37 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="n">
         <v>4</v>
       </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>2</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2536,43 +2536,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2582,43 +2582,43 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2631,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2861,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2904,13 +2904,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2996,13 +2996,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3088,22 +3088,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -3143,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3321,16 +3321,16 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3348,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -3434,19 +3434,19 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3529,16 +3529,16 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3548,31 +3548,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3594,40 +3594,40 @@
         </is>
       </c>
       <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
         <v>3</v>
       </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
       <c r="M69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
@@ -3640,40 +3640,40 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -3689,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3704,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -3885,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4241,19 +4241,19 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4262,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -4293,10 +4293,10 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4351,16 +4351,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -4523,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4652,43 +4652,43 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
       </c>
       <c r="H92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -4701,40 +4701,40 @@
         <v>3</v>
       </c>
       <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>3</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -4744,43 +4744,43 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
       </c>
       <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
         <v>2</v>
       </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
         <v>2</v>
       </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
       <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
         <v>2</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4805,28 +4805,28 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
         <v>2</v>
       </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4839,13 +4839,13 @@
         <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4854,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4882,13 +4882,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4928,34 +4928,34 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>3</v>
       </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4974,43 +4974,43 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
         <v>2</v>
       </c>
-      <c r="D99" t="n">
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>2</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="n">
-        <v>3</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -5020,25 +5020,25 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -5047,16 +5047,16 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -5142,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
     </row>
@@ -515,40 +515,40 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -610,37 +610,37 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -650,43 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -763,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -788,43 +788,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -834,34 +834,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1064,28 +1064,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1094,13 +1094,13 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1110,43 +1110,43 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -1202,22 +1202,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1404,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1570,28 +1570,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1640,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1677,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1760,16 +1760,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
@@ -2026,7 +2026,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2072,7 +2072,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2118,7 +2118,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2164,7 +2164,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2210,14 +2210,14 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2302,7 +2302,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2348,7 +2348,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2394,7 +2394,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2440,7 +2440,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2486,38 +2486,38 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2526,50 +2526,50 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="n">
         <v>3</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
@@ -2578,20 +2578,20 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2615,16 +2615,16 @@
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2634,62 +2634,62 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
         <v>2</v>
       </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2716,7 +2716,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2726,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2808,17 +2808,17 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2845,29 +2845,29 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2888,26 +2888,26 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2940,17 +2940,17 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2992,14 +2992,14 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3084,23 +3084,23 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -3130,26 +3130,26 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3176,23 +3176,23 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3222,14 +3222,14 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3268,11 +3268,11 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3308,17 +3308,17 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3425,25 +3425,25 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3468,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3529,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -3544,75 +3544,75 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3621,29 +3621,29 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3652,47 +3652,47 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -3722,20 +3722,20 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3774,7 +3774,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3820,7 +3820,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3866,7 +3866,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4004,7 +4004,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4050,7 +4050,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4096,7 +4096,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4142,7 +4142,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4188,7 +4188,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4234,23 +4234,23 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -4274,26 +4274,26 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -4326,7 +4326,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -4351,13 +4351,13 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4372,11 +4372,11 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -4394,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4412,13 +4412,13 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4464,7 +4464,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -4510,7 +4510,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -4602,7 +4602,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4648,38 +4648,38 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -4688,174 +4688,174 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="n">
         <v>3</v>
       </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
         <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
         <v>3</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
         <v>2</v>
       </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
@@ -4866,26 +4866,26 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4918,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -4937,10 +4937,10 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -4949,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
@@ -4970,75 +4970,75 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="n">
         <v>2</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
         <v>2</v>
       </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -5050,23 +5050,23 @@
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -5075,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -5090,25 +5090,25 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -5133,16 +5133,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -5154,46 +5154,92 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
     </row>
@@ -512,43 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -564,37 +564,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -610,28 +610,28 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -650,43 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -760,22 +760,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -788,40 +788,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>3</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -834,31 +834,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -880,10 +880,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1064,40 +1064,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>2</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -1110,43 +1110,43 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
         <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -1174,25 +1174,25 @@
         <v>2</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1205,16 +1205,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1646,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1674,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1757,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1876,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2026,7 +2026,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右上</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2072,7 +2072,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2118,7 +2118,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2164,11 +2164,11 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2210,14 +2210,14 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2302,7 +2302,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2348,7 +2348,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2394,7 +2394,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2440,7 +2440,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2486,32 +2486,32 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2520,56 +2520,56 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>3</v>
-      </c>
-      <c r="G46" t="n">
-        <v>4</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
@@ -2578,23 +2578,23 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2612,35 +2612,35 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2649,50 +2649,50 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2762,14 +2762,14 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2848,17 +2848,17 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -2888,32 +2888,32 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2940,17 +2940,17 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3038,11 +3038,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -3084,17 +3084,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3130,14 +3130,14 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3170,29 +3170,29 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3222,7 +3222,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3259,20 +3259,20 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3308,20 +3308,20 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3370,22 +3370,22 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3468,41 +3468,41 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -3523,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3544,26 +3544,26 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3590,53 +3590,53 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
         <v>3</v>
       </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3646,13 +3646,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3664,29 +3664,29 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -3698,13 +3698,13 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -3722,20 +3722,20 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3774,7 +3774,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3820,7 +3820,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4004,7 +4004,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4050,7 +4050,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4096,7 +4096,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4142,7 +4142,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4188,7 +4188,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4234,17 +4234,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -4280,20 +4280,20 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -4326,7 +4326,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -4345,13 +4345,13 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -4372,7 +4372,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -4394,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4412,13 +4412,13 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4464,7 +4464,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -4510,14 +4510,14 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -4556,7 +4556,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -4602,7 +4602,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4658,22 +4658,22 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4682,19 +4682,19 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4704,53 +4704,53 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
         <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="n">
         <v>2</v>
-      </c>
-      <c r="N93" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -4762,13 +4762,13 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -4780,41 +4780,41 @@
         <v>3</v>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
         <v>2</v>
       </c>
-      <c r="C95" t="n">
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
         <v>2</v>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -4823,20 +4823,20 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -4848,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4866,38 +4866,38 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4909,59 +4909,59 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
         <v>3</v>
       </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
@@ -4970,17 +4970,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -4989,38 +4989,38 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -5029,69 +5029,69 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
         <v>2</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
         <v>2</v>
       </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
@@ -5099,16 +5099,16 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -5133,13 +5133,13 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -5194,52 +5194,6 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>2025-06-05</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -524,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -533,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -550,6 +555,9 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -570,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -579,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -595,6 +603,9 @@
       </c>
       <c r="N3" t="n">
         <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -628,19 +639,22 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -688,6 +702,9 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -734,6 +751,9 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -780,6 +800,9 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -826,6 +849,9 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -872,6 +898,9 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -918,6 +947,9 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -959,9 +991,12 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1010,6 +1045,9 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1051,9 +1089,12 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1100,6 +1141,9 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1116,13 +1160,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1148,6 +1192,9 @@
       <c r="N15" t="n">
         <v>3</v>
       </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1162,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1171,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1194,6 +1241,9 @@
       <c r="N16" t="n">
         <v>4</v>
       </c>
+      <c r="O16" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1240,6 +1290,9 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1286,6 +1339,9 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1332,6 +1388,9 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1378,6 +1437,9 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1424,6 +1486,9 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1470,6 +1535,9 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1516,6 +1584,9 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1562,6 +1633,9 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1608,6 +1682,9 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1652,7 +1729,10 @@
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1700,6 +1780,9 @@
       <c r="N27" t="n">
         <v>0</v>
       </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1744,6 +1827,9 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1757,11 +1843,11 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
         <v>2</v>
       </c>
-      <c r="D29" t="n">
-        <v>3</v>
-      </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
@@ -1790,6 +1876,9 @@
         <v>1</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,6 +1927,9 @@
       <c r="N30" t="n">
         <v>0</v>
       </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1849,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1882,6 +1974,9 @@
         <v>1</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1930,6 +2025,9 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1976,6 +2074,9 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2022,11 +2123,14 @@
       <c r="N34" t="n">
         <v>0</v>
       </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2066,13 +2170,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2112,13 +2219,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2158,17 +2268,20 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2204,17 +2317,20 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2250,13 +2366,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2296,13 +2415,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2342,13 +2464,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2388,13 +2513,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2416,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2434,13 +2562,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2462,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2480,38 +2611,41 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2520,176 +2654,188 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
         <v>2</v>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1</v>
-      </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>2</v>
       </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2710,13 +2856,16 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2732,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2756,13 +2905,16 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2799,16 +2951,19 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2839,26 +2994,29 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -2885,35 +3043,38 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2937,16 +3098,19 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2959,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2986,13 +3150,16 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3032,13 +3199,16 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3078,23 +3248,26 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -3124,13 +3297,16 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3143,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3152,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3170,26 +3346,29 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3198,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -3216,13 +3395,16 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3238,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3259,16 +3441,19 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3284,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3305,23 +3490,26 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3342,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3354,41 +3542,44 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3400,13 +3591,16 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3419,40 +3613,43 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3489,20 +3686,23 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -3523,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3538,13 +3738,16 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3554,71 +3757,74 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3627,16 +3833,19 @@
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3646,62 +3855,65 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3710,29 +3922,32 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -3744,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3768,13 +3983,16 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3814,13 +4032,16 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3857,16 +4078,19 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3879,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3894,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3906,13 +4130,16 @@
         <v>1</v>
       </c>
       <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3925,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3940,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3949,16 +4176,19 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3998,13 +4228,16 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4044,13 +4277,16 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4090,13 +4326,16 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4136,13 +4375,16 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4182,13 +4424,16 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4228,23 +4473,26 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -4256,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -4268,29 +4516,32 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4302,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -4314,26 +4565,29 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -4345,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -4363,16 +4617,19 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -4391,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4412,13 +4669,16 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4459,12 +4719,15 @@
       </c>
       <c r="N87" t="n">
         <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -4504,20 +4767,23 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -4544,26 +4810,29 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -4590,19 +4859,22 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4612,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -4639,16 +4911,19 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4658,22 +4933,22 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4682,19 +4957,22 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4704,22 +4982,22 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -4728,23 +5006,26 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O93" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -4753,53 +5034,56 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
         <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4808,35 +5092,38 @@
         <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -4845,13 +5132,13 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4863,26 +5150,29 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -4891,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -4909,32 +5199,35 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -4943,34 +5236,37 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -4980,62 +5276,65 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="n">
         <v>2</v>
       </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
       <c r="N99" t="n">
         <v>1</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5044,38 +5343,41 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
         <v>2</v>
       </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -5084,38 +5386,41 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>2</v>
       </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -5130,13 +5435,13 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -5149,51 +5454,106 @@
       </c>
       <c r="N102" t="n">
         <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,72 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
     </row>
@@ -517,46 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
         <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -566,46 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -621,25 +610,25 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -648,12 +637,9 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -664,46 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -719,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -740,18 +723,15 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -774,33 +754,30 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -811,46 +788,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -860,28 +834,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -890,16 +864,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -909,7 +880,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -921,16 +892,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -942,13 +913,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -985,18 +953,15 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,25 +972,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1043,9 +1008,6 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1056,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1068,16 +1030,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1089,12 +1051,9 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1105,22 +1064,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1129,22 +1088,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1154,19 +1110,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1178,22 +1134,19 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1203,46 +1156,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1252,31 +1202,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1288,10 +1238,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1339,9 +1286,6 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1388,9 +1332,6 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1437,9 +1378,6 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1457,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1481,13 +1419,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1535,9 +1470,6 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1573,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1582,10 +1514,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1604,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1631,9 +1560,6 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1644,22 +1570,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1677,12 +1603,9 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,31 +1631,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1748,16 +1668,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1778,10 +1698,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1809,28 +1726,25 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1840,16 +1754,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1867,19 +1781,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1927,9 +1838,6 @@
       <c r="N30" t="n">
         <v>0</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1938,13 +1846,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1962,21 +1870,18 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2025,9 +1930,6 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2074,9 +1976,6 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2123,14 +2022,11 @@
       <c r="N34" t="n">
         <v>0</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右上</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2170,16 +2066,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2219,16 +2112,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2268,16 +2158,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2293,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2317,20 +2204,17 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2348,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2360,22 +2244,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2415,16 +2296,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2464,16 +2342,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2513,16 +2388,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2538,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2562,16 +2434,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2593,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2611,35 +2480,32 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2648,87 +2514,81 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
         <v>3</v>
       </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
-      </c>
-      <c r="O46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2737,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2752,26 +2612,23 @@
         <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -2780,62 +2637,59 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2856,16 +2710,13 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2881,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2905,23 +2756,20 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2945,25 +2793,22 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2988,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3000,19 +2845,16 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3046,26 +2888,23 @@
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -3098,19 +2937,16 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
-      </c>
-      <c r="O54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3123,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -3150,16 +2986,13 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3199,16 +3032,13 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3248,20 +3078,17 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -3297,32 +3124,29 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -3340,35 +3164,32 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3377,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -3395,16 +3216,13 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3414,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3435,25 +3253,22 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3469,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3490,19 +3305,16 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3524,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3542,23 +3354,20 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3579,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3591,16 +3400,13 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3613,19 +3419,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3640,16 +3446,13 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3686,19 +3489,16 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3717,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3738,29 +3538,26 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3772,63 +3569,60 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
         <v>3</v>
       </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3836,20 +3630,17 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -3858,43 +3649,40 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3913,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3922,32 +3710,29 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -3959,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3983,16 +3768,13 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -4032,16 +3814,13 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -4072,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4081,23 +3860,20 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -4112,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -4121,25 +3897,22 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -4152,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -4167,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4176,19 +3949,16 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -4228,16 +3998,13 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -4277,16 +4044,13 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -4326,16 +4090,13 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -4375,16 +4136,13 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4424,16 +4182,13 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4473,20 +4228,17 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -4498,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -4510,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4522,26 +4274,23 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4553,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -4565,35 +4314,32 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -4620,16 +4366,13 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -4648,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4666,19 +4409,16 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4719,15 +4459,12 @@
       </c>
       <c r="N87" t="n">
         <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -4767,16 +4504,13 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -4804,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4816,23 +4550,20 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -4859,26 +4590,23 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -4905,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -4914,35 +4642,32 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4951,28 +4676,25 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4982,144 +4704,135 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>4</v>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>3</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L93" t="n">
         <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
-      </c>
-      <c r="O93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>2</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
         <v>2</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -5129,16 +4842,16 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -5150,29 +4863,26 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
-      </c>
-      <c r="O96" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -5184,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -5196,32 +4906,29 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -5230,111 +4937,105 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
         <v>1</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5343,28 +5044,25 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -5374,19 +5072,19 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -5398,29 +5096,26 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
         <v>1</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -5435,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -5454,15 +5149,12 @@
       </c>
       <c r="N102" t="n">
         <v>0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -5502,58 +5194,6 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
     </row>
@@ -512,43 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -558,43 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -607,40 +607,40 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -650,43 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -751,22 +751,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -788,37 +788,37 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -834,22 +834,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1070,37 +1070,37 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
         <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1110,43 +1110,43 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1156,43 +1156,43 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
       <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1416,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1637,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1665,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1735,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1778,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1867,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2490,28 +2490,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
         <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
         <v>2</v>
@@ -2520,13 +2520,13 @@
         <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2536,43 +2536,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2582,43 +2582,43 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2790,16 +2790,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -2830,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -2904,10 +2904,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -3115,16 +3115,16 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3137,16 +3137,16 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -3250,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3333,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3364,25 +3364,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3434,16 +3434,16 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
         <v>1</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3548,43 +3548,43 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
         <v>3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3597,37 +3597,37 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
@@ -3640,31 +3640,31 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -3689,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -3848,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -3885,28 +3885,28 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -4247,25 +4247,25 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -4336,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -4535,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -4630,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -4652,43 +4652,43 @@
         </is>
       </c>
       <c r="B92" t="n">
+        <v>6</v>
+      </c>
+      <c r="C92" t="n">
         <v>4</v>
-      </c>
-      <c r="C92" t="n">
-        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
         <v>4</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -4698,19 +4698,19 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4719,22 +4719,22 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
         <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -4744,43 +4744,43 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>2</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -4790,16 +4790,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4808,25 +4808,25 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4839,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -4903,22 +4903,22 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4928,43 +4928,43 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>3</v>
       </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4974,43 +4974,43 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -5041,22 +5041,22 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -5075,16 +5075,16 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -5096,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
     </row>
@@ -512,43 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -558,43 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -604,43 +604,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -650,43 +650,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -696,10 +696,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -748,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -800,31 +800,31 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
         <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -837,16 +837,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1024,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1067,25 +1067,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1094,13 +1094,13 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1116,34 +1116,34 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
@@ -1159,40 +1159,40 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1628,25 +1628,25 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1729,16 +1729,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1775,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2238,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2428,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2490,43 +2490,43 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>3</v>
       </c>
-      <c r="C45" t="n">
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>3</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2539,40 +2539,40 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2582,40 +2582,40 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2787,16 +2787,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -2827,16 +2827,16 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3112,16 +3112,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3330,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3370,19 +3370,19 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3431,22 +3431,22 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3535,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3548,43 +3548,43 @@
         </is>
       </c>
       <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
         <v>3</v>
       </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2</v>
-      </c>
       <c r="N68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3594,37 +3594,37 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -3646,22 +3646,22 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -3686,10 +3686,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3845,10 +3845,10 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -3882,31 +3882,31 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4244,25 +4244,25 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -4333,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -4403,16 +4403,16 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4532,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4627,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -4652,40 +4652,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
         <v>4</v>
       </c>
-      <c r="D92" t="n">
+      <c r="J92" t="n">
+        <v>2</v>
+      </c>
+      <c r="K92" t="n">
         <v>4</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>4</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1</v>
       </c>
       <c r="L92" t="n">
         <v>4</v>
       </c>
       <c r="M92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N92" t="n">
         <v>3</v>
@@ -4698,40 +4698,40 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>3</v>
       </c>
-      <c r="E93" t="n">
-        <v>4</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
         <v>3</v>
-      </c>
-      <c r="K93" t="n">
-        <v>2</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
       </c>
       <c r="N93" t="n">
         <v>2</v>
@@ -4747,40 +4747,40 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -4790,13 +4790,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4805,28 +4805,28 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -4900,25 +4900,25 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -4931,10 +4931,10 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -4943,25 +4943,25 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N98" t="n">
         <v>2</v>
@@ -4974,43 +4974,43 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -5038,25 +5038,25 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -5093,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2025-06-06</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2025-06-09</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2025-06-11</t>
         </is>
@@ -512,42 +497,33 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -567,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -579,21 +555,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -604,42 +571,33 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -650,42 +608,33 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,7 +645,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -723,15 +672,6 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,42 +682,33 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -788,16 +719,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -806,24 +737,15 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -834,42 +756,33 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -880,16 +793,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -898,24 +811,15 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -947,21 +851,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -975,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -999,15 +894,6 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1018,19 +904,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1039,21 +925,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1064,13 +941,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1079,27 +956,18 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1113,39 +981,30 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1156,7 +1015,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1168,30 +1027,21 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1202,19 +1052,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1223,21 +1073,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1277,15 +1118,6 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1323,15 +1155,6 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1369,15 +1192,6 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1389,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1404,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1413,15 +1227,6 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1461,15 +1266,6 @@
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1490,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1505,15 +1301,6 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1527,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1551,15 +1338,6 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1573,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1597,15 +1375,6 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1645,15 +1414,6 @@
       <c r="K26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1662,10 +1422,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1683,21 +1443,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,42 +1459,33 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1781,15 +1523,6 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1829,15 +1562,6 @@
       <c r="K30" t="n">
         <v>0</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1855,33 +1579,24 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1921,15 +1636,6 @@
       <c r="K32" t="n">
         <v>0</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1967,15 +1673,6 @@
       <c r="K33" t="n">
         <v>0</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2013,15 +1710,6 @@
       <c r="K34" t="n">
         <v>0</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2059,15 +1747,6 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2105,15 +1784,6 @@
       <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2151,15 +1821,6 @@
       <c r="K37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2174,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2192,18 +1853,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2229,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2238,18 +1890,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2289,15 +1932,6 @@
       <c r="K40" t="n">
         <v>0</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2335,15 +1969,6 @@
       <c r="K41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2381,15 +2006,6 @@
       <c r="K42" t="n">
         <v>0</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2404,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2419,21 +2035,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2473,15 +2080,6 @@
       <c r="K44" t="n">
         <v>0</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2490,42 +2088,33 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2536,42 +2125,33 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2585,39 +2165,30 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2628,10 +2199,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2655,15 +2226,6 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2674,7 +2236,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2701,15 +2263,6 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2749,15 +2302,6 @@
       <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2778,30 +2322,21 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2818,13 +2353,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2833,21 +2368,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2887,15 +2413,6 @@
       <c r="K53" t="n">
         <v>0</v>
       </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2933,15 +2450,6 @@
       <c r="K54" t="n">
         <v>0</v>
       </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2977,15 +2485,6 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3025,15 +2524,6 @@
       <c r="K56" t="n">
         <v>0</v>
       </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3069,15 +2559,6 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3103,27 +2584,18 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3140,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -3161,15 +2633,6 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3209,15 +2672,6 @@
       <c r="K60" t="n">
         <v>0</v>
       </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3226,7 +2680,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -3238,30 +2692,21 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3301,15 +2746,6 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -3321,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3342,18 +2778,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3367,19 +2794,19 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3388,18 +2815,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3422,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3437,15 +2855,6 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3485,15 +2894,6 @@
       <c r="K66" t="n">
         <v>0</v>
       </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3502,22 +2902,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3526,18 +2926,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3548,16 +2939,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3569,21 +2960,12 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3</v>
-      </c>
-      <c r="N68" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3594,10 +2976,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -3606,30 +2988,21 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3643,22 +3016,22 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -3667,15 +3040,6 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,7 +3050,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -3713,15 +3077,6 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3761,15 +3116,6 @@
       <c r="K72" t="n">
         <v>0</v>
       </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3807,15 +3153,6 @@
       <c r="K73" t="n">
         <v>0</v>
       </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3836,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3845,21 +3182,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3873,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -3897,15 +3225,6 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3940,18 +3259,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3991,15 +3301,6 @@
       <c r="K77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4037,15 +3338,6 @@
       <c r="K78" t="n">
         <v>0</v>
       </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4078,18 +3370,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,15 +3412,6 @@
       <c r="K80" t="n">
         <v>0</v>
       </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -4175,15 +3449,6 @@
       <c r="K81" t="n">
         <v>0</v>
       </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -4221,15 +3486,6 @@
       <c r="K82" t="n">
         <v>0</v>
       </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -4238,42 +3494,33 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4313,15 +3560,6 @@
       <c r="K84" t="n">
         <v>0</v>
       </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -4333,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -4357,15 +3595,6 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4394,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4403,15 +3632,6 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4451,15 +3671,6 @@
       <c r="K87" t="n">
         <v>0</v>
       </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -4497,15 +3708,6 @@
       <c r="K88" t="n">
         <v>0</v>
       </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -4523,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -4532,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4541,15 +3743,6 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4589,15 +3782,6 @@
       <c r="K90" t="n">
         <v>0</v>
       </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -4618,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4627,21 +3811,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4652,42 +3827,33 @@
         </is>
       </c>
       <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
         <v>4</v>
       </c>
-      <c r="C92" t="n">
-        <v>3</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
         <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>4</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4</v>
-      </c>
-      <c r="M92" t="n">
-        <v>3</v>
-      </c>
-      <c r="N92" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4701,39 +3867,30 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
         <v>3</v>
       </c>
-      <c r="D93" t="n">
-        <v>4</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
         <v>3</v>
       </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2</v>
-      </c>
       <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="n">
-        <v>3</v>
-      </c>
-      <c r="N93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4744,42 +3901,33 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="n">
-        <v>3</v>
-      </c>
-      <c r="N94" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4793,39 +3941,30 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4836,7 +3975,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -4863,15 +4002,6 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4891,33 +4021,24 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4928,42 +4049,33 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="n">
-        <v>2</v>
-      </c>
-      <c r="N98" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4977,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4989,27 +4101,18 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5029,33 +4132,24 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5066,42 +4160,33 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5141,15 +4226,6 @@
       <c r="K102" t="n">
         <v>0</v>
       </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -5161,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -5170,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -5185,15 +4261,6 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,52 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
     </row>
@@ -500,31 +500,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -592,10 +592,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -611,28 +611,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -719,34 +719,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -768,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -959,16 +959,16 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -978,34 +978,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1018,31 +1018,31 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1283,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1440,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -1878,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2088,34 +2088,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
         <v>3</v>
       </c>
-      <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2125,34 +2125,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2162,34 +2162,34 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
         <v>3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2319,16 +2319,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2350,19 +2350,19 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2556,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2689,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2902,13 +2902,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -2939,31 +2939,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>2</v>
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3013,34 +3013,34 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3170,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3198,31 +3198,31 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -3256,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3367,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -3494,19 +3494,19 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3620,16 +3620,16 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
@@ -3722,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3827,34 +3827,34 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
         <v>4</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
         <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3864,34 +3864,34 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
       </c>
       <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>3</v>
       </c>
-      <c r="G93" t="n">
-        <v>2</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3904,31 +3904,31 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3941,31 +3941,31 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
@@ -4027,19 +4027,19 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -4052,25 +4052,25 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
         <v>2</v>
@@ -4086,31 +4086,31 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
@@ -4129,25 +4129,25 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -4175,19 +4175,19 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4234,10 +4234,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -4249,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
     </row>
@@ -497,34 +497,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -543,25 +543,25 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -580,22 +580,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -608,34 +608,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -666,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -685,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -722,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -740,13 +740,13 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -765,22 +765,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -799,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -888,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -956,19 +956,19 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -978,31 +978,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1015,34 +1015,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1280,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2029,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2047,72 +2047,72 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2131,71 +2131,71 @@
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2232,7 +2232,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2269,7 +2269,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2306,26 +2306,26 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2337,23 +2337,23 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -2380,7 +2380,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2417,7 +2417,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2454,7 +2454,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2516,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2528,7 +2528,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2541,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -2565,7 +2565,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2639,7 +2639,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2689,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2713,11 +2713,11 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2750,14 +2750,14 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2772,32 +2772,32 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2824,7 +2824,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2861,11 +2861,11 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2898,11 +2898,11 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -2911,22 +2911,22 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -2935,69 +2935,69 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3009,11 +3009,11 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -3022,22 +3022,22 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3083,7 +3083,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3120,7 +3120,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3157,7 +3157,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3167,25 +3167,25 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3194,20 +3194,20 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3222,16 +3222,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3305,7 +3305,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3416,7 +3416,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3453,17 +3453,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3500,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3564,7 +3564,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3589,10 +3589,10 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -3601,7 +3601,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3675,14 +3675,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -3786,72 +3786,72 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3870,25 +3870,25 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
         <v>3</v>
       </c>
-      <c r="E93" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -3897,109 +3897,109 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4008,54 +4008,54 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
         <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -4064,62 +4064,62 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -4129,25 +4129,25 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -4156,11 +4156,11 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -4175,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4187,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -4224,43 +4224,6 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>2025-06-13</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -509,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -526,6 +531,9 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -563,6 +571,9 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -583,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -598,6 +609,9 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -611,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -635,6 +649,9 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -674,6 +691,9 @@
       <c r="K6" t="n">
         <v>1</v>
       </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -711,6 +731,9 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -740,13 +763,16 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -785,6 +811,9 @@
       <c r="K9" t="n">
         <v>1</v>
       </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -822,6 +851,9 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -859,6 +891,9 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -896,6 +931,9 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -933,6 +971,9 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -970,6 +1011,9 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -987,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
@@ -1007,6 +1051,9 @@
       <c r="K15" t="n">
         <v>1</v>
       </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1024,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
@@ -1044,6 +1091,9 @@
       <c r="K16" t="n">
         <v>0</v>
       </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1081,6 +1131,9 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1118,6 +1171,9 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1155,6 +1211,9 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1192,6 +1251,9 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1229,6 +1291,9 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1266,6 +1331,9 @@
       <c r="K22" t="n">
         <v>0</v>
       </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1280,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1301,7 +1369,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1340,6 +1411,9 @@
       <c r="K24" t="n">
         <v>0</v>
       </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1354,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1375,7 +1449,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1414,6 +1491,9 @@
       <c r="K26" t="n">
         <v>0</v>
       </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1451,6 +1531,9 @@
       <c r="K27" t="n">
         <v>0</v>
       </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1488,6 +1571,9 @@
       <c r="K28" t="n">
         <v>0</v>
       </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1525,6 +1611,9 @@
       <c r="K29" t="n">
         <v>0</v>
       </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1562,6 +1651,9 @@
       <c r="K30" t="n">
         <v>0</v>
       </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1599,6 +1691,9 @@
       <c r="K31" t="n">
         <v>0</v>
       </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1636,6 +1731,9 @@
       <c r="K32" t="n">
         <v>0</v>
       </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1673,6 +1771,9 @@
       <c r="K33" t="n">
         <v>0</v>
       </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1710,6 +1811,9 @@
       <c r="K34" t="n">
         <v>0</v>
       </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1747,6 +1851,9 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1784,6 +1891,9 @@
       <c r="K36" t="n">
         <v>0</v>
       </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1821,6 +1931,9 @@
       <c r="K37" t="n">
         <v>0</v>
       </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1858,6 +1971,9 @@
       <c r="K38" t="n">
         <v>1</v>
       </c>
+      <c r="L38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1895,6 +2011,9 @@
       <c r="K39" t="n">
         <v>0</v>
       </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1932,6 +2051,9 @@
       <c r="K40" t="n">
         <v>0</v>
       </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1969,6 +2091,9 @@
       <c r="K41" t="n">
         <v>0</v>
       </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2006,6 +2131,9 @@
       <c r="K42" t="n">
         <v>0</v>
       </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2043,6 +2171,9 @@
       <c r="K43" t="n">
         <v>0</v>
       </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2066,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2078,6 +2209,9 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2112,9 +2246,12 @@
         <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2140,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2149,10 +2286,13 @@
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2191,6 +2331,9 @@
       <c r="K47" t="n">
         <v>0</v>
       </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2228,6 +2371,9 @@
       <c r="K48" t="n">
         <v>0</v>
       </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2265,6 +2411,9 @@
       <c r="K49" t="n">
         <v>0</v>
       </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2302,6 +2451,9 @@
       <c r="K50" t="n">
         <v>0</v>
       </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2339,6 +2491,9 @@
       <c r="K51" t="n">
         <v>0</v>
       </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2376,6 +2531,9 @@
       <c r="K52" t="n">
         <v>0</v>
       </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2413,6 +2571,9 @@
       <c r="K53" t="n">
         <v>0</v>
       </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2450,6 +2611,9 @@
       <c r="K54" t="n">
         <v>0</v>
       </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2487,6 +2651,9 @@
       <c r="K55" t="n">
         <v>0</v>
       </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2524,6 +2691,9 @@
       <c r="K56" t="n">
         <v>0</v>
       </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2561,6 +2731,9 @@
       <c r="K57" t="n">
         <v>0</v>
       </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2598,6 +2771,9 @@
       <c r="K58" t="n">
         <v>0</v>
       </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2635,6 +2811,9 @@
       <c r="K59" t="n">
         <v>0</v>
       </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2672,6 +2851,9 @@
       <c r="K60" t="n">
         <v>0</v>
       </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2709,6 +2891,9 @@
       <c r="K61" t="n">
         <v>0</v>
       </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2746,6 +2931,9 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2760,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2781,6 +2969,9 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2797,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2818,6 +3009,9 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2857,6 +3051,9 @@
       <c r="K65" t="n">
         <v>0</v>
       </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2894,6 +3091,9 @@
       <c r="K66" t="n">
         <v>0</v>
       </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2931,6 +3131,9 @@
       <c r="K67" t="n">
         <v>0</v>
       </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2968,6 +3171,9 @@
       <c r="K68" t="n">
         <v>0</v>
       </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -3005,6 +3211,9 @@
       <c r="K69" t="n">
         <v>0</v>
       </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3042,6 +3251,9 @@
       <c r="K70" t="n">
         <v>0</v>
       </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3079,6 +3291,9 @@
       <c r="K71" t="n">
         <v>0</v>
       </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3116,6 +3331,9 @@
       <c r="K72" t="n">
         <v>0</v>
       </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3130,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3152,6 +3370,9 @@
       </c>
       <c r="K73" t="n">
         <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3185,9 +3406,12 @@
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3204,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3222,10 +3446,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3264,6 +3491,9 @@
       <c r="K76" t="n">
         <v>0</v>
       </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3301,6 +3531,9 @@
       <c r="K77" t="n">
         <v>0</v>
       </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3338,6 +3571,9 @@
       <c r="K78" t="n">
         <v>0</v>
       </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3375,6 +3611,9 @@
       <c r="K79" t="n">
         <v>0</v>
       </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3412,6 +3651,9 @@
       <c r="K80" t="n">
         <v>0</v>
       </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3449,6 +3691,9 @@
       <c r="K81" t="n">
         <v>0</v>
       </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3484,7 +3729,10 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3523,6 +3771,9 @@
       <c r="K83" t="n">
         <v>0</v>
       </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3558,6 +3809,9 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3597,6 +3851,9 @@
       <c r="K85" t="n">
         <v>0</v>
       </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3634,6 +3891,9 @@
       <c r="K86" t="n">
         <v>0</v>
       </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3671,6 +3931,9 @@
       <c r="K87" t="n">
         <v>0</v>
       </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3708,6 +3971,9 @@
       <c r="K88" t="n">
         <v>0</v>
       </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3745,6 +4011,9 @@
       <c r="K89" t="n">
         <v>0</v>
       </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3782,6 +4051,9 @@
       <c r="K90" t="n">
         <v>0</v>
       </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3799,7 +4071,7 @@
         <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>4</v>
@@ -3819,6 +4091,9 @@
       <c r="K91" t="n">
         <v>1</v>
       </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3848,12 +4123,15 @@
         <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3873,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3885,13 +4163,16 @@
         <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -3930,6 +4211,9 @@
       <c r="K94" t="n">
         <v>2</v>
       </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3967,6 +4251,9 @@
       <c r="K95" t="n">
         <v>0</v>
       </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -4004,6 +4291,9 @@
       <c r="K96" t="n">
         <v>0</v>
       </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -4015,31 +4305,34 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>3</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4058,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -4076,6 +4369,9 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4089,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -4113,6 +4409,9 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4135,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4147,9 +4446,12 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4189,6 +4491,9 @@
       <c r="K101" t="n">
         <v>0</v>
       </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -4209,10 +4514,10 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4221,9 +4526,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -545,31 +545,31 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -588,25 +588,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -625,28 +625,28 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -994,22 +994,22 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
       </c>
       <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1542,19 +1542,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1957,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2006,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業右上</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2058,7 +2058,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2098,7 +2098,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,7 +2138,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2178,54 +2178,54 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -2234,31 +2234,31 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2268,77 +2268,77 @@
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2378,7 +2378,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2418,7 +2418,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2458,20 +2458,20 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2508,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2538,20 +2538,20 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2618,7 +2618,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2680,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2711,16 +2711,16 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2738,7 +2738,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2818,7 +2818,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2828,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2858,17 +2858,17 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2892,17 +2892,17 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2938,17 +2938,17 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2957,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2972,20 +2972,20 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3052,17 +3052,17 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3098,167 +3098,167 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3298,7 +3298,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3338,7 +3338,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3372,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3397,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3418,14 +3418,14 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3446,26 +3446,26 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -3498,7 +3498,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3538,7 +3538,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3698,17 +3698,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -3738,14 +3738,14 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3809,16 +3809,16 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -3852,13 +3852,13 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3880,25 +3880,25 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3938,14 +3938,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3978,11 +3978,11 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4058,137 +4058,137 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" t="n">
         <v>3</v>
-      </c>
-      <c r="D92" t="n">
-        <v>3</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -4197,19 +4197,19 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>2</v>
@@ -4218,38 +4218,38 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4258,35 +4258,35 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4298,23 +4298,23 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4323,53 +4323,53 @@
         <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -4378,23 +4378,23 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -4412,23 +4412,23 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4452,13 +4452,13 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4498,40 +4498,80 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -585,25 +585,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -622,28 +622,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -994,25 +994,25 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
         <v>7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
         <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1443,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1582,19 +1582,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2191,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2222,34 +2222,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
         <v>3</v>
@@ -2262,28 +2262,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2305,34 +2305,34 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
         <v>3</v>
       </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
         <v>3</v>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2542,16 +2542,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2745,16 +2745,16 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
@@ -2954,25 +2954,25 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3142,34 +3142,34 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3182,22 +3182,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3206,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3222,37 +3222,37 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3422,25 +3422,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3462,10 +3462,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -3809,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3843,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -3868,31 +3868,31 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4062,10 +4062,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4102,13 +4102,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
         <v>4</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -4117,22 +4117,22 @@
         <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K92" t="n">
         <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -4145,34 +4145,34 @@
         <v>3</v>
       </c>
       <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
         <v>3</v>
       </c>
-      <c r="D93" t="n">
-        <v>2</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
       <c r="G93" t="n">
         <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -4182,31 +4182,31 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4222,37 +4222,37 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
         <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4308,31 +4308,31 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4345,16 +4345,16 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4363,16 +4363,16 @@
         <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4385,31 +4385,31 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4422,22 +4422,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
         <v>2</v>
@@ -4468,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
     </row>
@@ -502,34 +502,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -674,25 +674,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -754,22 +754,22 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -782,28 +782,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="n">
-        <v>6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -2012,13 +2012,13 @@
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2058,7 +2058,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2098,7 +2098,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,7 +2138,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2178,118 +2178,118 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2298,32 +2298,32 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2452,20 +2452,20 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2480,25 +2480,25 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2538,17 +2538,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2618,7 +2618,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2698,17 +2698,17 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2738,20 +2738,20 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2818,11 +2818,11 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -2858,14 +2858,14 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2889,16 +2889,16 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2911,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2951,16 +2951,16 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2988,16 +2988,16 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3018,11 +3018,11 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3049,16 +3049,16 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3098,32 +3098,32 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3138,32 +3138,32 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3172,84 +3172,84 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3298,7 +3298,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3338,7 +3338,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3348,22 +3348,22 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3418,11 +3418,11 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -3431,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3458,11 +3458,11 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3498,7 +3498,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3538,7 +3538,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3578,7 +3578,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3698,7 +3698,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -3738,11 +3738,11 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3778,14 +3778,14 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -3794,22 +3794,22 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -3877,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3978,7 +3978,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -4018,63 +4018,63 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4083,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L91" t="n">
         <v>1</v>
@@ -4098,26 +4098,26 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4126,63 +4126,63 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
         <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4206,130 +4206,130 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>1</v>
@@ -4338,14 +4338,14 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4354,44 +4354,44 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4418,14 +4418,14 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4449,29 +4449,29 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4492,86 +4492,6 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>食品工業右下</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -542,31 +542,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -671,25 +671,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -751,28 +751,28 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1022,34 +1022,34 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1062,34 +1062,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1160,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1400,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1474,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1948,22 +1948,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2000,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2182,34 +2182,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>2</v>
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2246,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2265,13 +2265,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2280,19 +2280,19 @@
         <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -2434,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2483,16 +2483,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -2908,25 +2908,25 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2948,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -2985,31 +2985,31 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3068,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3102,28 +3102,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -3160,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3182,34 +3182,34 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
@@ -3345,25 +3345,25 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3400,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3782,31 +3782,31 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -3911,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -4006,10 +4006,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -4022,34 +4022,34 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K90" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -4062,37 +4062,37 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
         <v>3</v>
       </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
       <c r="K91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4102,34 +4102,34 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
       </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
         <v>3</v>
       </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2</v>
-      </c>
       <c r="K92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
@@ -4142,34 +4142,34 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -4206,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4222,28 +4222,28 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4262,37 +4262,37 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4302,28 +4302,28 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -4342,16 +4342,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4363,13 +4363,13 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
         <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -4382,22 +4382,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4406,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -542,28 +542,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -603,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -622,19 +622,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -668,25 +668,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -748,31 +748,31 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -788,16 +788,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
         <v>4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1040,13 +1040,13 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1471,16 +1471,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1489,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1560,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1597,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1957,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1994,25 +1994,25 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2182,16 +2182,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -2200,19 +2200,19 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
         <v>3</v>
       </c>
-      <c r="J44" t="n">
-        <v>2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2</v>
-      </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2222,19 +2222,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2243,16 +2243,16 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2265,34 +2265,34 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2668,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2702,10 +2702,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -2905,25 +2905,25 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2945,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -2982,25 +2982,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3102,25 +3102,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3142,34 +3142,34 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
         <v>2</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -3194,25 +3194,25 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3538,7 +3538,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3578,7 +3578,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3618,7 +3618,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3674,13 +3674,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3698,7 +3698,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3778,11 +3778,11 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3858,7 +3858,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3978,17 +3978,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -3997,59 +3997,59 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
         <v>3</v>
       </c>
-      <c r="E90" t="n">
-        <v>3</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>3</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
       <c r="J90" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
@@ -4058,118 +4058,118 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
+        <v>4</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
         <v>3</v>
       </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -4178,20 +4178,20 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -4200,96 +4200,96 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
         <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -4298,60 +4298,60 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4363,29 +4363,29 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4418,7 +4418,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -4452,46 +4452,6 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -542,25 +542,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -582,16 +582,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -600,13 +600,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -665,25 +665,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -745,34 +745,34 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
         <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -785,16 +785,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
         <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1037,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1065,25 +1065,25 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1154,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1468,16 +1468,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1557,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1594,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -2003,16 +2003,16 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -2182,37 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>3</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>3</v>
       </c>
       <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
       <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
         <v>3</v>
       </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2</v>
-      </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -2240,16 +2240,16 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2262,28 +2262,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2428,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2477,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2665,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -2726,10 +2726,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2902,25 +2902,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2942,10 +2942,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2957,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2982,28 +2982,28 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3126,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3142,31 +3142,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>2</v>
@@ -3182,43 +3182,43 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3258,7 +3258,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3298,7 +3298,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3332,32 +3332,32 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3388,16 +3388,16 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3418,11 +3418,11 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3458,7 +3458,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3498,14 +3498,14 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -3538,11 +3538,11 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3618,7 +3618,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3674,13 +3674,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3698,7 +3698,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3738,7 +3738,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3772,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3818,26 +3818,26 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -3892,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3938,14 +3938,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3972,23 +3972,23 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -3997,38 +3997,38 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4037,72 +4037,72 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
         <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -4111,41 +4111,41 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -4154,50 +4154,50 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -4212,44 +4212,44 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4258,38 +4258,38 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -4298,23 +4298,23 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -4323,44 +4323,44 @@
         <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -4369,16 +4369,16 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -4397,10 +4397,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4418,40 +4418,120 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
+          <t>食品工業右上</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -542,22 +542,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -597,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -662,25 +662,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="L8" t="n">
         <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -782,16 +782,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -982,34 +982,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
@@ -1025,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1034,13 +1034,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
         <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1465,16 +1465,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1554,22 +1554,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1951,28 +1951,28 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -2000,16 +2000,16 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2182,34 +2182,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
         <v>3</v>
       </c>
       <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
         <v>3</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -2237,16 +2237,16 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2262,25 +2262,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2425,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2474,16 +2474,16 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2582,10 +2582,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2902,22 +2902,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2957,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2985,16 +2985,16 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3102,37 +3102,37 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
         <v>2</v>
       </c>
-      <c r="D67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1</v>
-      </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -3151,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3182,37 +3182,37 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3366,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3382,19 +3382,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3618,7 +3618,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3698,7 +3698,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3772,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3818,26 +3818,26 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3892,17 +3892,17 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -3938,14 +3938,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3972,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4009,201 +4009,201 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
         <v>5</v>
       </c>
-      <c r="C91" t="n">
-        <v>5</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>3</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2</v>
-      </c>
-      <c r="H91" t="n">
-        <v>7</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1</v>
-      </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
         <v>2</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
         <v>2</v>
       </c>
-      <c r="G93" t="n">
-        <v>2</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1</v>
-      </c>
       <c r="L93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -4212,20 +4212,20 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -4234,22 +4234,22 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4258,134 +4258,134 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
         <v>2</v>
       </c>
       <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
         <v>3</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
         <v>2</v>
       </c>
-      <c r="D97" t="n">
-        <v>2</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
       <c r="L97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4400,16 +4400,16 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4418,7 +4418,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -4440,16 +4440,16 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
         <v>1</v>
@@ -4458,7 +4458,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -4492,46 +4492,6 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
     </row>
@@ -502,34 +502,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -566,13 +566,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -662,22 +662,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -806,13 +806,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1031,28 +1031,28 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1462,16 +1462,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1486,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1551,16 +1551,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -1569,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1668,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1948,31 +1948,31 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1997,16 +1997,16 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2182,19 +2182,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" t="n">
-        <v>3</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="F44" t="n">
         <v>2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2203,16 +2203,16 @@
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2225,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2265,31 +2265,31 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2443,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2471,16 +2471,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2720,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
@@ -2831,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2902,19 +2902,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2982,22 +2982,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3102,34 +3102,34 @@
         </is>
       </c>
       <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
         <v>2</v>
       </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -3148,28 +3148,28 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>1</v>
@@ -3182,37 +3182,37 @@
         </is>
       </c>
       <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
         <v>2</v>
       </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
       <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" t="n">
         <v>2</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3</v>
-      </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3385,13 +3385,13 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -3428,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3618,7 +3618,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3698,7 +3698,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -3738,20 +3738,20 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3818,20 +3818,20 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -3898,11 +3898,11 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3966,19 +3966,19 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4009,315 +4009,315 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
         <v>3</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
       <c r="K91" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
         <v>3</v>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2</v>
-      </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
         <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4326,23 +4326,23 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K97" t="n">
+        <v>4</v>
+      </c>
+      <c r="L97" t="n">
         <v>2</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -4351,22 +4351,22 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
         <v>2</v>
-      </c>
-      <c r="G98" t="n">
-        <v>2</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4378,26 +4378,26 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4418,11 +4418,11 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -4434,64 +4434,104 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>3</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -545,13 +545,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -582,28 +582,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -631,28 +631,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -665,34 +665,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -751,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -840,16 +840,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -923,16 +923,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1025,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9</v>
-      </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1062,31 +1062,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1142,13 +1142,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1443,16 +1443,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1462,13 +1462,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1480,19 +1480,19 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1508,25 +1508,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1551,28 +1551,28 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1680,16 +1680,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1738,7 +1738,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1778,7 +1778,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1818,7 +1818,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1858,7 +1858,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1898,11 +1898,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1920,35 +1920,35 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1966,35 +1966,35 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2018,7 +2018,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2058,7 +2058,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2098,7 +2098,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,7 +2138,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2182,37 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2222,37 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2265,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -2274,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2351,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2388,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2437,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2465,19 +2465,19 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2511,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2714,25 +2714,25 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2825,16 +2825,16 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2902,16 +2902,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -2982,19 +2982,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3098,17 +3098,17 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業平</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3138,20 +3138,20 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3160,56 +3160,56 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -3218,11 +3218,11 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3357,19 +3357,19 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3403,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3760,13 +3760,13 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -3825,13 +3825,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3880,13 +3880,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4028,28 +4028,28 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -4062,37 +4062,37 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="n">
         <v>3</v>
       </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>5</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -4102,37 +4102,37 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4142,34 +4142,34 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>4</v>
       </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -4182,34 +4182,34 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4240,19 +4240,19 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4262,19 +4262,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4302,37 +4302,37 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4342,37 +4342,37 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4385,22 +4385,22 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4409,10 +4409,10 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4422,34 +4422,34 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -4480,16 +4480,16 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -557,22 +557,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -600,19 +600,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -797,16 +797,16 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -837,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
       <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1022,34 +1022,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
         <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1440,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1462,37 +1462,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1517,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1646,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1677,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -1874,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1902,31 +1902,31 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -1948,16 +1948,16 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業右上</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2018,7 +2018,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2058,7 +2058,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2098,7 +2098,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,7 +2138,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2178,26 +2178,26 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2206,35 +2206,35 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2243,47 +2243,47 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2311,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2418,14 +2418,14 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2458,23 +2458,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2492,17 +2492,17 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2618,7 +2618,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2649,16 +2649,16 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2723,22 +2723,22 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2797,38 +2797,38 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2858,14 +2858,14 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2898,14 +2898,14 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -2938,11 +2938,11 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -2978,17 +2978,17 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3040,25 +3040,25 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3098,7 +3098,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業平</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3138,11 +3138,11 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業平</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -3157,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3178,20 +3178,20 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3200,10 +3200,10 @@
         <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3212,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -3237,10 +3237,10 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -3252,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3289,16 +3289,16 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3338,7 +3338,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
@@ -3378,11 +3378,11 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -3394,22 +3394,22 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3418,11 +3418,11 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -3440,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3458,7 +3458,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3498,7 +3498,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3538,7 +3538,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3578,7 +3578,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3618,7 +3618,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3698,7 +3698,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3738,14 +3738,14 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3778,11 +3778,11 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3818,14 +3818,14 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -3858,11 +3858,11 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3898,11 +3898,11 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -3978,7 +3978,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3997,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -4058,78 +4058,78 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
+        <v>5</v>
+      </c>
+      <c r="D92" t="n">
         <v>2</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
         <v>3</v>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
@@ -4138,75 +4138,75 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
         <v>4</v>
       </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
       <c r="H93" t="n">
+        <v>6</v>
+      </c>
+      <c r="I93" t="n">
         <v>4</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4218,38 +4218,38 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -4268,25 +4268,25 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -4298,57 +4298,57 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -4357,48 +4357,48 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H98" t="n">
+        <v>4</v>
+      </c>
+      <c r="I98" t="n">
         <v>2</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
         <v>2</v>
       </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
@@ -4412,35 +4412,35 @@
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -4449,44 +4449,44 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -4498,40 +4498,80 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -502,34 +502,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -554,22 +554,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -597,22 +597,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -674,25 +674,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -794,16 +794,16 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -834,25 +834,25 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1437,22 +1437,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1465,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1474,25 +1474,25 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1945,16 +1945,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2018,7 +2018,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2058,7 +2058,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2098,7 +2098,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,7 +2138,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2178,20 +2178,20 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2200,16 +2200,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2218,38 +2218,38 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
@@ -2258,23 +2258,23 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2311,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2338,14 +2338,14 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2378,17 +2378,17 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2418,23 +2418,23 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2471,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2489,23 +2489,23 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2618,7 +2618,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2674,31 +2674,31 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2738,7 +2738,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2797,32 +2797,32 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2858,14 +2858,14 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2932,17 +2932,17 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -2978,11 +2978,11 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3018,14 +3018,14 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3040,25 +3040,25 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3098,7 +3098,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業平</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3138,7 +3138,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3151,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3163,93 +3163,93 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3289,16 +3289,16 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3338,7 +3338,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3351,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3394,16 +3394,16 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3498,7 +3498,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3538,7 +3538,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3578,7 +3578,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3618,7 +3618,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3698,7 +3698,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3738,7 +3738,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3778,11 +3778,11 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3858,11 +3858,11 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3978,7 +3978,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3997,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4018,11 +4018,11 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -4058,23 +4058,23 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4083,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -4098,72 +4098,72 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
         <v>5</v>
       </c>
-      <c r="D92" t="n">
-        <v>2</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" t="n">
-        <v>3</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2</v>
-      </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
         <v>3</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -4172,32 +4172,32 @@
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -4206,10 +4206,10 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
@@ -4218,17 +4218,17 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4237,19 +4237,19 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4258,32 +4258,32 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4298,54 +4298,54 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4354,50 +4354,50 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4418,14 +4418,14 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -4452,29 +4452,29 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4486,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -4498,7 +4498,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4517,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -4532,46 +4532,6 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Result/analyze_1.xlsx
+++ b/Result/analyze_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -502,31 +502,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -551,28 +551,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -594,25 +594,25 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -671,25 +671,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -745,34 +745,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -831,28 +831,28 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1062,34 +1062,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -1406,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1434,22 +1434,22 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -1471,25 +1471,25 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1511,28 +1511,28 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1640,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1671,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1738,7 +1738,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1778,7 +1778,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1818,7 +1818,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1858,7 +1858,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1914,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1938,26 +1938,26 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1991,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2098,7 +2098,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,7 +2138,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2178,20 +2178,20 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2200,16 +2200,16 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2218,17 +2218,17 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2252,41 +2252,41 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2298,14 +2298,14 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2338,20 +2338,20 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2378,11 +2378,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2418,23 +2418,23 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2458,7 +2458,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2578,11 +2578,11 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業右下</t>
